--- a/services/opengsync-app/static/resources/templates/library_prep/RNA.xlsx
+++ b/services/opengsync-app/static/resources/templates/library_prep/RNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hriegler\Documents\limbless-app\services\opengsync-app\static\resources\templates\library_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B46355-096F-40B0-8C92-259150CDDFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0FB309-5FB4-4421-A979-D3E5B5152843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="27" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="308">
   <si>
     <t>RIN</t>
   </si>
@@ -1061,6 +1061,18 @@
   <si>
     <t>library_kits</t>
   </si>
+  <si>
+    <t>Library kits:</t>
+  </si>
+  <si>
+    <t>E3330;E7490;E7416</t>
+  </si>
+  <si>
+    <t>E3330;E7405;E7416</t>
+  </si>
+  <si>
+    <t>E7760;E7405;E7416</t>
+  </si>
 </sst>
 </file>
 
@@ -1069,7 +1081,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,6 +1280,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1746,7 +1764,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2012,110 +2030,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2126,19 +2048,97 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2146,6 +2146,45 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2174,122 +2213,233 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2318,152 +2468,44 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2480,42 +2522,19 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3383,8 +3402,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>140</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -3450,8 +3469,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>133</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
@@ -3517,8 +3536,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>107</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -3584,8 +3603,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>93</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -3651,8 +3670,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>79</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -3718,8 +3737,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -3785,8 +3804,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -3852,8 +3871,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -3919,8 +3938,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -3986,8 +4005,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4053,8 +4072,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4114,13 +4133,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>349249</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>30163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>50799</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4181,8 +4200,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4248,8 +4267,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4315,8 +4334,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4382,8 +4401,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4449,8 +4468,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4516,8 +4535,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4583,8 +4602,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4650,8 +4669,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4717,8 +4736,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4784,8 +4803,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>66</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4851,8 +4870,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4918,8 +4937,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>70</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -4985,8 +5004,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>73</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -5052,8 +5071,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>85</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -5119,8 +5138,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -5186,8 +5205,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -5253,8 +5272,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>88</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -5320,8 +5339,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>95</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -5387,8 +5406,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>99</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -5454,8 +5473,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>104</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -5521,8 +5540,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>116</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5588,8 +5607,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>118</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -5655,8 +5674,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>122</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -5722,8 +5741,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>123</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5789,8 +5808,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>124</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -5856,8 +5875,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>126</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -5923,8 +5942,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>127</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -5990,8 +6009,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>129</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -6057,8 +6076,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -6124,8 +6143,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -6191,8 +6210,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -6258,8 +6277,8 @@
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>91</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
@@ -6325,8 +6344,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>139</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -6392,8 +6411,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>152</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -6459,8 +6478,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>152</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -6526,8 +6545,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2469</xdr:colOff>
           <xdr:row>153</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -9071,13 +9090,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>730251</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12018,13 +12037,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>730251</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15338,10 +15357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B80578E-4B3E-4627-94C8-A999D92CAB25}">
-  <dimension ref="A1:AK168"/>
+  <dimension ref="A1:AK169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="81" workbookViewId="0">
-      <selection activeCell="AD156" sqref="AD156"/>
+    <sheetView topLeftCell="A137" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:XFD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15354,39 +15373,39 @@
   <sheetData>
     <row r="1" spans="1:37" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="171" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:37" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
     </row>
     <row r="3" spans="1:37" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
       <c r="J3" s="30"/>
       <c r="K3" s="35" t="s">
         <v>18</v>
@@ -15396,74 +15415,74 @@
       </c>
     </row>
     <row r="4" spans="1:37" s="5" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="J4" s="128" t="s">
+      <c r="B4" s="168"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="J4" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="129"/>
+      <c r="K4" s="177"/>
       <c r="L4" s="8"/>
       <c r="AK4" s="9"/>
     </row>
     <row r="5" spans="1:37" s="5" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="AK5" s="9"/>
     </row>
     <row r="6" spans="1:37" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
     </row>
     <row r="7" spans="1:37" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
     </row>
     <row r="8" spans="1:37" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="183"/>
     </row>
     <row r="9" spans="1:37" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="138"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="32"/>
       <c r="F9" s="10" t="b">
         <f>MOD(E9,8)=0</f>
@@ -15480,12 +15499,12 @@
       <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:37" s="5" customFormat="1" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="32"/>
       <c r="F10" s="10" t="b">
         <f>MOD($E$10,12)=0</f>
@@ -15502,21 +15521,21 @@
       <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:37" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="141"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="164"/>
     </row>
     <row r="12" spans="1:37" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
@@ -17082,21 +17101,21 @@
     </row>
     <row r="40" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="166"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="166"/>
+      <c r="N40" s="167"/>
       <c r="O40" s="19"/>
     </row>
     <row r="41" spans="1:17" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17120,11 +17139,11 @@
       <c r="E42" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="113" t="str">
+      <c r="F42" s="115" t="str">
         <f>IF(ISNUMBER($E$9),CONCATENATE(" Volume for ",$E$9," samples"),CONCATENATE(" Volume for ",$E$10," samples"))</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G42" s="113"/>
+      <c r="G42" s="115"/>
       <c r="H42" s="26"/>
       <c r="O42" s="19"/>
     </row>
@@ -17133,18 +17152,18 @@
       <c r="B43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="148" t="s">
+      <c r="C43" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="149"/>
+      <c r="D43" s="156"/>
       <c r="E43" s="20">
         <v>50</v>
       </c>
-      <c r="F43" s="144">
+      <c r="F43" s="138">
         <f>IF(ISNUMBER($E$9),E43*$E$9*1.1,E43*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="145"/>
+      <c r="G43" s="139"/>
       <c r="H43" s="21" t="s">
         <v>20</v>
       </c>
@@ -17154,18 +17173,18 @@
     <row r="44" spans="1:17" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="150" t="s">
+      <c r="C44" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="151"/>
+      <c r="D44" s="158"/>
       <c r="E44" s="20">
         <v>50</v>
       </c>
-      <c r="F44" s="144">
+      <c r="F44" s="138">
         <f>IF(ISNUMBER($E$9),E44*$E$9*1.1,E44*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="145"/>
+      <c r="G44" s="139"/>
       <c r="H44" s="23" t="s">
         <v>20</v>
       </c>
@@ -17180,11 +17199,11 @@
         <f>SUM(E43:E44)</f>
         <v>100</v>
       </c>
-      <c r="F45" s="146">
+      <c r="F45" s="153">
         <f>SUM(F43:F44)</f>
         <v>0</v>
       </c>
-      <c r="G45" s="147"/>
+      <c r="G45" s="154"/>
       <c r="H45" s="24" t="s">
         <v>20</v>
       </c>
@@ -17228,21 +17247,21 @@
     </row>
     <row r="49" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
-      <c r="B49" s="152" t="s">
+      <c r="B49" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="153"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
-      <c r="N49" s="154"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="160"/>
+      <c r="K49" s="160"/>
+      <c r="L49" s="160"/>
+      <c r="M49" s="160"/>
+      <c r="N49" s="161"/>
       <c r="O49" s="19"/>
     </row>
     <row r="50" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17261,29 +17280,29 @@
       <c r="E51" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="113" t="str">
+      <c r="F51" s="115" t="str">
         <f>IF(ISNUMBER($E$9),CONCATENATE(" Volume for ",$E$9," samples"),CONCATENATE(" Volume for ",$E$10," samples"))</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G51" s="113"/>
+      <c r="G51" s="115"/>
     </row>
     <row r="52" spans="1:16" s="5" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="143" t="s">
+      <c r="C52" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="143"/>
+      <c r="D52" s="152"/>
       <c r="E52" s="20">
         <v>4</v>
       </c>
-      <c r="F52" s="144">
+      <c r="F52" s="138">
         <f>IF(ISNUMBER($E$9),E52*$E$9*1.1,E52*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="145"/>
+      <c r="G52" s="139"/>
       <c r="H52" s="21" t="s">
         <v>20</v>
       </c>
@@ -17293,18 +17312,18 @@
     </row>
     <row r="53" spans="1:16" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
-      <c r="C53" s="114" t="s">
+      <c r="C53" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="114"/>
+      <c r="D53" s="131"/>
       <c r="E53" s="22">
         <v>4</v>
       </c>
-      <c r="F53" s="144">
+      <c r="F53" s="138">
         <f>IF(ISNUMBER($E$9),E53*$E$9*1.1,E53*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="145"/>
+      <c r="G53" s="139"/>
       <c r="H53" s="23" t="s">
         <v>20</v>
       </c>
@@ -17316,11 +17335,11 @@
         <f>SUM(E52:E53)</f>
         <v>8</v>
       </c>
-      <c r="F54" s="146">
+      <c r="F54" s="153">
         <f>F52+F53</f>
         <v>0</v>
       </c>
-      <c r="G54" s="147"/>
+      <c r="G54" s="154"/>
       <c r="H54" s="24" t="s">
         <v>20</v>
       </c>
@@ -17330,21 +17349,21 @@
     </row>
     <row r="55" spans="1:16" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
-      <c r="B55" s="161" t="s">
+      <c r="B55" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="162"/>
-      <c r="D55" s="162"/>
-      <c r="E55" s="162"/>
-      <c r="F55" s="162"/>
-      <c r="G55" s="162"/>
-      <c r="H55" s="162"/>
-      <c r="I55" s="162"/>
-      <c r="J55" s="162"/>
-      <c r="K55" s="162"/>
-      <c r="L55" s="162"/>
-      <c r="M55" s="162"/>
-      <c r="N55" s="163"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
+      <c r="M55" s="125"/>
+      <c r="N55" s="126"/>
     </row>
     <row r="56" spans="1:16" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
@@ -17374,11 +17393,11 @@
       <c r="E57" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="113" t="str">
+      <c r="F57" s="115" t="str">
         <f>IF(ISNUMBER($E$9),CONCATENATE(" Volume for ",$E$9," samples"),CONCATENATE(" Volume for ",$E$10," samples"))</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G57" s="113"/>
+      <c r="G57" s="115"/>
       <c r="K57" s="41"/>
       <c r="L57" s="41"/>
       <c r="M57" s="41"/>
@@ -17387,18 +17406,18 @@
     <row r="58" spans="1:16" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="30"/>
-      <c r="C58" s="164" t="s">
+      <c r="C58" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="D58" s="164"/>
+      <c r="D58" s="151"/>
       <c r="E58" s="20">
         <v>20</v>
       </c>
-      <c r="F58" s="102">
+      <c r="F58" s="129">
         <f>IF(ISNUMBER($E$9),E58*$E$9*1.1,E58*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="102"/>
+      <c r="G58" s="129"/>
       <c r="H58" s="21" t="s">
         <v>20</v>
       </c>
@@ -17410,18 +17429,18 @@
     <row r="59" spans="1:16" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="30"/>
-      <c r="C59" s="165" t="s">
+      <c r="C59" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="165"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="20">
         <v>50</v>
       </c>
-      <c r="F59" s="102">
+      <c r="F59" s="129">
         <f>IF(ISNUMBER($E$9),E59*$E$9*1.1,E59*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G59" s="102"/>
+      <c r="G59" s="129"/>
       <c r="H59" s="21" t="s">
         <v>20</v>
       </c>
@@ -17534,21 +17553,21 @@
     </row>
     <row r="72" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="155" t="s">
+      <c r="B72" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="156"/>
-      <c r="D72" s="156"/>
-      <c r="E72" s="156"/>
-      <c r="F72" s="156"/>
-      <c r="G72" s="156"/>
-      <c r="H72" s="156"/>
-      <c r="I72" s="156"/>
-      <c r="J72" s="156"/>
-      <c r="K72" s="156"/>
-      <c r="L72" s="156"/>
-      <c r="M72" s="156"/>
-      <c r="N72" s="157"/>
+      <c r="C72" s="149"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="149"/>
+      <c r="F72" s="149"/>
+      <c r="G72" s="149"/>
+      <c r="H72" s="149"/>
+      <c r="I72" s="149"/>
+      <c r="J72" s="149"/>
+      <c r="K72" s="149"/>
+      <c r="L72" s="149"/>
+      <c r="M72" s="149"/>
+      <c r="N72" s="150"/>
     </row>
     <row r="73" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
@@ -17599,11 +17618,11 @@
       <c r="E75" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="113" t="str">
+      <c r="F75" s="115" t="str">
         <f>IF(ISNUMBER($E$9),CONCATENATE(" Volume for ",$E$9," samples"),CONCATENATE(" Volume for ",$E$10," samples"))</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G75" s="113"/>
+      <c r="G75" s="115"/>
       <c r="K75" s="41"/>
       <c r="L75" s="41"/>
       <c r="M75" s="41"/>
@@ -17614,17 +17633,17 @@
       <c r="B76" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="114" t="s">
+      <c r="C76" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="114"/>
+      <c r="D76" s="131"/>
       <c r="E76" s="22">
         <v>5</v>
       </c>
-      <c r="F76" s="115" t="s">
+      <c r="F76" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G76" s="116"/>
+      <c r="G76" s="118"/>
       <c r="H76" s="70" t="s">
         <v>20</v>
       </c>
@@ -17632,18 +17651,18 @@
     <row r="77" spans="1:16" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="158" t="s">
+      <c r="C77" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="D77" s="158"/>
+      <c r="D77" s="130"/>
       <c r="E77" s="96">
         <v>4</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="127">
         <f>IF(ISNUMBER($E$9),E77*$E$9*1.1,E77*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G77" s="160"/>
+      <c r="G77" s="128"/>
       <c r="H77" s="71" t="s">
         <v>20</v>
       </c>
@@ -17651,18 +17670,18 @@
     <row r="78" spans="1:16" s="4" customFormat="1" ht="36.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="166" t="s">
+      <c r="C78" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="D78" s="166"/>
+      <c r="D78" s="143"/>
       <c r="E78" s="22">
         <v>1</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="127">
         <f>IF(ISNUMBER($E$9),E78*$E$9*1.1,E78*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G78" s="160"/>
+      <c r="G78" s="128"/>
       <c r="H78" s="70" t="s">
         <v>20</v>
       </c>
@@ -17678,19 +17697,19 @@
     <row r="79" spans="1:16" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="103" t="s">
+      <c r="C79" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D79" s="104"/>
+      <c r="D79" s="186"/>
       <c r="E79" s="37">
         <f>SUM(E76:E78)</f>
         <v>10</v>
       </c>
-      <c r="F79" s="105">
+      <c r="F79" s="110">
         <f>F77+F78</f>
         <v>0</v>
       </c>
-      <c r="G79" s="106"/>
+      <c r="G79" s="111"/>
       <c r="H79" s="71" t="s">
         <v>20</v>
       </c>
@@ -17728,21 +17747,21 @@
     </row>
     <row r="83" spans="1:16" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
-      <c r="B83" s="167" t="s">
+      <c r="B83" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
-      <c r="F83" s="168"/>
-      <c r="G83" s="168"/>
-      <c r="H83" s="168"/>
-      <c r="I83" s="168"/>
-      <c r="J83" s="168"/>
-      <c r="K83" s="168"/>
-      <c r="L83" s="168"/>
-      <c r="M83" s="168"/>
-      <c r="N83" s="169"/>
+      <c r="C83" s="145"/>
+      <c r="D83" s="145"/>
+      <c r="E83" s="145"/>
+      <c r="F83" s="145"/>
+      <c r="G83" s="145"/>
+      <c r="H83" s="145"/>
+      <c r="I83" s="145"/>
+      <c r="J83" s="145"/>
+      <c r="K83" s="145"/>
+      <c r="L83" s="145"/>
+      <c r="M83" s="145"/>
+      <c r="N83" s="146"/>
     </row>
     <row r="84" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12"/>
@@ -17773,77 +17792,77 @@
       <c r="E85" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="113" t="str">
+      <c r="F85" s="115" t="str">
         <f>IF(ISNUMBER($E$9),CONCATENATE(" Volume for ",$E$9," samples"),CONCATENATE(" Volume for ",$E$10," samples"))</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G85" s="113"/>
+      <c r="G85" s="115"/>
     </row>
     <row r="86" spans="1:16" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12"/>
       <c r="B86" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="114" t="s">
+      <c r="C86" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="D86" s="114"/>
+      <c r="D86" s="131"/>
       <c r="E86" s="22">
         <v>10</v>
       </c>
-      <c r="F86" s="115" t="s">
+      <c r="F86" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="116"/>
+      <c r="G86" s="118"/>
       <c r="H86" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J86" s="170" t="s">
+      <c r="J86" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="K86" s="170"/>
-      <c r="L86" s="170"/>
-      <c r="M86" s="170"/>
-      <c r="N86" s="170"/>
+      <c r="K86" s="147"/>
+      <c r="L86" s="147"/>
+      <c r="M86" s="147"/>
+      <c r="N86" s="147"/>
     </row>
     <row r="87" spans="1:16" s="5" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
-      <c r="C87" s="171" t="s">
+      <c r="C87" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="171"/>
+      <c r="D87" s="140"/>
       <c r="E87" s="97">
         <v>30</v>
       </c>
-      <c r="F87" s="159">
+      <c r="F87" s="127">
         <f>IF(ISNUMBER($E$9),E87*$E$9*1.1,E87*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G87" s="160"/>
+      <c r="G87" s="128"/>
       <c r="H87" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="J87" s="170"/>
-      <c r="K87" s="170"/>
-      <c r="L87" s="170"/>
-      <c r="M87" s="170"/>
-      <c r="N87" s="170"/>
+      <c r="J87" s="147"/>
+      <c r="K87" s="147"/>
+      <c r="L87" s="147"/>
+      <c r="M87" s="147"/>
+      <c r="N87" s="147"/>
     </row>
     <row r="88" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
-      <c r="C88" s="103" t="s">
+      <c r="C88" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D88" s="104"/>
+      <c r="D88" s="186"/>
       <c r="E88" s="37">
         <f>SUM(E86:E87)</f>
         <v>40</v>
       </c>
-      <c r="F88" s="105">
+      <c r="F88" s="110">
         <f>SUM(F86:G87)</f>
         <v>0</v>
       </c>
-      <c r="G88" s="106"/>
+      <c r="G88" s="111"/>
       <c r="H88" s="71" t="s">
         <v>20</v>
       </c>
@@ -17868,21 +17887,21 @@
     </row>
     <row r="91" spans="1:16" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
-      <c r="B91" s="107" t="s">
+      <c r="B91" s="187" t="s">
         <v>103</v>
       </c>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
-      <c r="G91" s="108"/>
-      <c r="H91" s="108"/>
-      <c r="I91" s="108"/>
-      <c r="J91" s="108"/>
-      <c r="K91" s="108"/>
-      <c r="L91" s="108"/>
-      <c r="M91" s="108"/>
-      <c r="N91" s="109"/>
+      <c r="C91" s="188"/>
+      <c r="D91" s="188"/>
+      <c r="E91" s="188"/>
+      <c r="F91" s="188"/>
+      <c r="G91" s="188"/>
+      <c r="H91" s="188"/>
+      <c r="I91" s="188"/>
+      <c r="J91" s="188"/>
+      <c r="K91" s="188"/>
+      <c r="L91" s="188"/>
+      <c r="M91" s="188"/>
+      <c r="N91" s="189"/>
     </row>
     <row r="92" spans="1:16" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12"/>
@@ -17892,21 +17911,21 @@
     </row>
     <row r="93" spans="1:16" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
-      <c r="B93" s="110" t="s">
+      <c r="B93" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="111"/>
-      <c r="D93" s="111"/>
-      <c r="E93" s="111"/>
-      <c r="F93" s="111"/>
-      <c r="G93" s="111"/>
-      <c r="H93" s="111"/>
-      <c r="I93" s="111"/>
-      <c r="J93" s="111"/>
-      <c r="K93" s="111"/>
-      <c r="L93" s="111"/>
-      <c r="M93" s="111"/>
-      <c r="N93" s="112"/>
+      <c r="C93" s="166"/>
+      <c r="D93" s="166"/>
+      <c r="E93" s="166"/>
+      <c r="F93" s="166"/>
+      <c r="G93" s="166"/>
+      <c r="H93" s="166"/>
+      <c r="I93" s="166"/>
+      <c r="J93" s="166"/>
+      <c r="K93" s="166"/>
+      <c r="L93" s="166"/>
+      <c r="M93" s="166"/>
+      <c r="N93" s="167"/>
     </row>
     <row r="94" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12"/>
@@ -17937,11 +17956,11 @@
       <c r="E95" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F95" s="113" t="str">
+      <c r="F95" s="115" t="str">
         <f>IF(ISNUMBER($E$9),CONCATENATE(" Volume for ",$E$9," samples"),CONCATENATE(" Volume for ",$E$10," samples"))</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G95" s="113"/>
+      <c r="G95" s="115"/>
       <c r="K95" s="41"/>
       <c r="L95" s="41"/>
       <c r="M95" s="41"/>
@@ -17952,17 +17971,17 @@
       <c r="B96" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C96" s="114" t="s">
+      <c r="C96" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="114"/>
+      <c r="D96" s="131"/>
       <c r="E96" s="22">
         <v>20</v>
       </c>
-      <c r="F96" s="115" t="s">
+      <c r="F96" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="116"/>
+      <c r="G96" s="118"/>
       <c r="H96" s="70" t="s">
         <v>20</v>
       </c>
@@ -17970,18 +17989,18 @@
     <row r="97" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="158" t="s">
+      <c r="C97" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="D97" s="158"/>
+      <c r="D97" s="130"/>
       <c r="E97" s="96">
         <v>2.5</v>
       </c>
-      <c r="F97" s="159">
+      <c r="F97" s="127">
         <f>IF(ISNUMBER($E$9),E97*$E$9*1.1,E97*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G97" s="160"/>
+      <c r="G97" s="128"/>
       <c r="H97" s="71" t="s">
         <v>20</v>
       </c>
@@ -17992,18 +18011,18 @@
     <row r="98" spans="1:16" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="114" t="s">
+      <c r="C98" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="D98" s="114"/>
+      <c r="D98" s="131"/>
       <c r="E98" s="22">
         <v>1.5</v>
       </c>
-      <c r="F98" s="159">
+      <c r="F98" s="127">
         <f>IF(ISNUMBER($E$9),E98*$E$9*1.1,E98*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G98" s="160"/>
+      <c r="G98" s="128"/>
       <c r="H98" s="70" t="s">
         <v>20</v>
       </c>
@@ -18019,19 +18038,19 @@
     <row r="99" spans="1:16" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="103" t="s">
+      <c r="C99" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="104"/>
+      <c r="D99" s="186"/>
       <c r="E99" s="37">
         <f>SUM($E$96:$E$98)</f>
         <v>24</v>
       </c>
-      <c r="F99" s="172">
+      <c r="F99" s="132">
         <f>SUM($F$97:$G$98)</f>
         <v>0</v>
       </c>
-      <c r="G99" s="173"/>
+      <c r="G99" s="133"/>
       <c r="H99" s="71" t="s">
         <v>20</v>
       </c>
@@ -18070,21 +18089,21 @@
     </row>
     <row r="103" spans="1:16" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
-      <c r="B103" s="174" t="s">
+      <c r="B103" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="175"/>
-      <c r="D103" s="175"/>
-      <c r="E103" s="175"/>
-      <c r="F103" s="175"/>
-      <c r="G103" s="175"/>
-      <c r="H103" s="175"/>
-      <c r="I103" s="175"/>
-      <c r="J103" s="175"/>
-      <c r="K103" s="175"/>
-      <c r="L103" s="175"/>
-      <c r="M103" s="175"/>
-      <c r="N103" s="176"/>
+      <c r="C103" s="135"/>
+      <c r="D103" s="135"/>
+      <c r="E103" s="135"/>
+      <c r="F103" s="135"/>
+      <c r="G103" s="135"/>
+      <c r="H103" s="135"/>
+      <c r="I103" s="135"/>
+      <c r="J103" s="135"/>
+      <c r="K103" s="135"/>
+      <c r="L103" s="135"/>
+      <c r="M103" s="135"/>
+      <c r="N103" s="136"/>
     </row>
     <row r="104" spans="1:16" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12"/>
@@ -18096,14 +18115,14 @@
       <c r="E104" s="30"/>
       <c r="F104" s="30"/>
       <c r="G104" s="30"/>
-      <c r="H104" s="178" t="s">
+      <c r="H104" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="I104" s="179"/>
-      <c r="J104" s="117" t="s">
+      <c r="I104" s="142"/>
+      <c r="J104" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="K104" s="118"/>
+      <c r="K104" s="191"/>
       <c r="L104" s="30"/>
       <c r="M104" s="30"/>
       <c r="N104" s="30"/>
@@ -18116,14 +18135,14 @@
       <c r="E105" s="30"/>
       <c r="F105" s="30"/>
       <c r="G105" s="30"/>
-      <c r="H105" s="119" t="s">
+      <c r="H105" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="I105" s="119"/>
-      <c r="J105" s="119" t="s">
+      <c r="I105" s="192"/>
+      <c r="J105" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="K105" s="119"/>
+      <c r="K105" s="192"/>
       <c r="L105" s="30"/>
       <c r="M105" s="30"/>
       <c r="N105" s="30"/>
@@ -18136,14 +18155,14 @@
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
       <c r="G106" s="30"/>
-      <c r="H106" s="120" t="s">
+      <c r="H106" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="I106" s="120"/>
-      <c r="J106" s="120" t="s">
+      <c r="I106" s="193"/>
+      <c r="J106" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="K106" s="120"/>
+      <c r="K106" s="193"/>
       <c r="L106" s="30"/>
       <c r="M106" s="30"/>
       <c r="N106" s="30"/>
@@ -18638,11 +18657,11 @@
       <c r="E118" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F118" s="113" t="str">
+      <c r="F118" s="115" t="str">
         <f>IF(ISNUMBER($E$9),CONCATENATE(" Volume for ",$E$9," samples"),CONCATENATE(" Volume for ",$E$10," samples"))</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G118" s="113"/>
+      <c r="G118" s="115"/>
       <c r="K118" s="41"/>
       <c r="L118" s="41"/>
       <c r="M118" s="41"/>
@@ -18653,17 +18672,17 @@
       <c r="B119" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C119" s="165" t="s">
+      <c r="C119" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="D119" s="165"/>
+      <c r="D119" s="137"/>
       <c r="E119" s="20">
         <v>24</v>
       </c>
-      <c r="F119" s="144" t="s">
+      <c r="F119" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="G119" s="145"/>
+      <c r="G119" s="139"/>
       <c r="H119" s="21" t="s">
         <v>20</v>
       </c>
@@ -18671,17 +18690,17 @@
     <row r="120" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="177" t="s">
+      <c r="C120" s="116" t="s">
         <v>302</v>
       </c>
-      <c r="D120" s="177"/>
+      <c r="D120" s="116"/>
       <c r="E120" s="22">
         <v>2</v>
       </c>
-      <c r="F120" s="115" t="s">
+      <c r="F120" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G120" s="116"/>
+      <c r="G120" s="118"/>
       <c r="H120" s="23" t="s">
         <v>20</v>
       </c>
@@ -18690,18 +18709,18 @@
     <row r="121" spans="1:16" s="4" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="171" t="s">
+      <c r="C121" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="D121" s="171"/>
+      <c r="D121" s="140"/>
       <c r="E121" s="97">
         <v>12</v>
       </c>
-      <c r="F121" s="159">
+      <c r="F121" s="127">
         <f>IF(ISNUMBER($E$9),E121*$E$9*1.1,E121*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G121" s="160"/>
+      <c r="G121" s="128"/>
       <c r="H121" s="99" t="s">
         <v>20</v>
       </c>
@@ -18717,19 +18736,19 @@
     <row r="122" spans="1:16" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
       <c r="B122" s="5"/>
-      <c r="C122" s="103" t="s">
+      <c r="C122" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D122" s="104"/>
+      <c r="D122" s="186"/>
       <c r="E122" s="37">
         <f>SUM(E119:E121)</f>
         <v>38</v>
       </c>
-      <c r="F122" s="105">
+      <c r="F122" s="110">
         <f>SUM(F120:G121)</f>
         <v>0</v>
       </c>
-      <c r="G122" s="106"/>
+      <c r="G122" s="111"/>
       <c r="H122" s="24" t="s">
         <v>20</v>
       </c>
@@ -18771,21 +18790,21 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="190" t="s">
+      <c r="B126" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="191"/>
-      <c r="D126" s="191"/>
-      <c r="E126" s="191"/>
-      <c r="F126" s="191"/>
-      <c r="G126" s="191"/>
-      <c r="H126" s="191"/>
-      <c r="I126" s="191"/>
-      <c r="J126" s="191"/>
-      <c r="K126" s="191"/>
-      <c r="L126" s="191"/>
-      <c r="M126" s="191"/>
-      <c r="N126" s="192"/>
+      <c r="C126" s="113"/>
+      <c r="D126" s="113"/>
+      <c r="E126" s="113"/>
+      <c r="F126" s="113"/>
+      <c r="G126" s="113"/>
+      <c r="H126" s="113"/>
+      <c r="I126" s="113"/>
+      <c r="J126" s="113"/>
+      <c r="K126" s="113"/>
+      <c r="L126" s="113"/>
+      <c r="M126" s="113"/>
+      <c r="N126" s="114"/>
     </row>
     <row r="127" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12"/>
@@ -18812,11 +18831,11 @@
       <c r="E129" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F129" s="113" t="str">
+      <c r="F129" s="115" t="str">
         <f>IF(ISNUMBER($E$9),CONCATENATE(" Volume for ",$E$9," samples"),CONCATENATE(" Volume for ",$E$10," samples"))</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G129" s="113"/>
+      <c r="G129" s="115"/>
       <c r="K129" s="41"/>
       <c r="L129" s="41"/>
       <c r="M129" s="41"/>
@@ -18827,17 +18846,17 @@
       <c r="B130" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C130" s="177" t="s">
+      <c r="C130" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="D130" s="177"/>
+      <c r="D130" s="116"/>
       <c r="E130" s="58">
         <v>20</v>
       </c>
-      <c r="F130" s="115" t="s">
+      <c r="F130" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G130" s="116"/>
+      <c r="G130" s="118"/>
       <c r="H130" s="70" t="s">
         <v>20</v>
       </c>
@@ -18845,18 +18864,18 @@
     <row r="131" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="193" t="s">
+      <c r="C131" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="D131" s="193"/>
+      <c r="D131" s="119"/>
       <c r="E131" s="57">
         <v>22.5</v>
       </c>
-      <c r="F131" s="159">
+      <c r="F131" s="127">
         <f>IF(ISNUMBER($E$9),E131*$E$9*1.1,E131*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G131" s="160"/>
+      <c r="G131" s="128"/>
       <c r="H131" s="71" t="s">
         <v>20</v>
       </c>
@@ -18865,18 +18884,18 @@
     <row r="132" spans="1:16" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="13"/>
       <c r="B132" s="5"/>
-      <c r="C132" s="177" t="s">
+      <c r="C132" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="D132" s="177"/>
+      <c r="D132" s="116"/>
       <c r="E132" s="58">
         <v>2.5</v>
       </c>
-      <c r="F132" s="159">
+      <c r="F132" s="127">
         <f>IF(ISNUMBER($E$9),E132*$E$9*1.1,E132*$E$10*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G132" s="160"/>
+      <c r="G132" s="128"/>
       <c r="H132" s="70" t="s">
         <v>20</v>
       </c>
@@ -18892,19 +18911,19 @@
     <row r="133" spans="1:16" s="4" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
       <c r="B133" s="5"/>
-      <c r="C133" s="103" t="s">
+      <c r="C133" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D133" s="104"/>
+      <c r="D133" s="186"/>
       <c r="E133" s="37">
         <f>SUM(E130:E132)</f>
         <v>45</v>
       </c>
-      <c r="F133" s="105">
+      <c r="F133" s="110">
         <f>SUM(F131:G132)</f>
         <v>0</v>
       </c>
-      <c r="G133" s="106"/>
+      <c r="G133" s="111"/>
       <c r="H133" s="71" t="s">
         <v>20</v>
       </c>
@@ -18938,7 +18957,7 @@
       <c r="F135" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="G135" s="102" t="str">
+      <c r="G135" s="129" t="str">
         <f>IF(J134&gt;0,CONCATENATE(J134," cycles"),"___cycles")</f>
         <v>___cycles</v>
       </c>
@@ -18948,61 +18967,61 @@
       <c r="F136" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="G136" s="102"/>
-      <c r="I136" s="181" t="s">
+      <c r="G136" s="129"/>
+      <c r="I136" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="J136" s="181"/>
-      <c r="K136" s="181" t="s">
+      <c r="J136" s="109"/>
+      <c r="K136" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="L136" s="181"/>
+      <c r="L136" s="109"/>
     </row>
     <row r="137" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="F137" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="I137" s="181" t="s">
+      <c r="I137" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="J137" s="181"/>
-      <c r="K137" s="180" t="str">
+      <c r="J137" s="109"/>
+      <c r="K137" s="120" t="str">
         <f>"10 - 12"</f>
         <v>10 - 12</v>
       </c>
-      <c r="L137" s="180"/>
+      <c r="L137" s="120"/>
     </row>
     <row r="138" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F138" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I138" s="181" t="s">
+      <c r="I138" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="J138" s="181"/>
-      <c r="K138" s="180" t="str">
+      <c r="J138" s="109"/>
+      <c r="K138" s="120" t="str">
         <f>"12 - 14"</f>
         <v>12 - 14</v>
       </c>
-      <c r="L138" s="180"/>
+      <c r="L138" s="120"/>
     </row>
     <row r="139" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="182" t="s">
+      <c r="B139" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="183"/>
-      <c r="D139" s="183"/>
-      <c r="E139" s="183"/>
-      <c r="F139" s="183"/>
-      <c r="G139" s="183"/>
-      <c r="H139" s="183"/>
-      <c r="I139" s="183"/>
-      <c r="J139" s="183"/>
-      <c r="K139" s="183"/>
-      <c r="L139" s="183"/>
-      <c r="M139" s="183"/>
-      <c r="N139" s="184"/>
+      <c r="C139" s="122"/>
+      <c r="D139" s="122"/>
+      <c r="E139" s="122"/>
+      <c r="F139" s="122"/>
+      <c r="G139" s="122"/>
+      <c r="H139" s="122"/>
+      <c r="I139" s="122"/>
+      <c r="J139" s="122"/>
+      <c r="K139" s="122"/>
+      <c r="L139" s="122"/>
+      <c r="M139" s="122"/>
+      <c r="N139" s="123"/>
     </row>
     <row r="140" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12"/>
@@ -19014,21 +19033,21 @@
     </row>
     <row r="141" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12"/>
-      <c r="B141" s="161" t="s">
+      <c r="B141" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="C141" s="162"/>
-      <c r="D141" s="162"/>
-      <c r="E141" s="162"/>
-      <c r="F141" s="162"/>
-      <c r="G141" s="162"/>
-      <c r="H141" s="162"/>
-      <c r="I141" s="162"/>
-      <c r="J141" s="162"/>
-      <c r="K141" s="162"/>
-      <c r="L141" s="162"/>
-      <c r="M141" s="162"/>
-      <c r="N141" s="163"/>
+      <c r="C141" s="125"/>
+      <c r="D141" s="125"/>
+      <c r="E141" s="125"/>
+      <c r="F141" s="125"/>
+      <c r="G141" s="125"/>
+      <c r="H141" s="125"/>
+      <c r="I141" s="125"/>
+      <c r="J141" s="125"/>
+      <c r="K141" s="125"/>
+      <c r="L141" s="125"/>
+      <c r="M141" s="125"/>
+      <c r="N141" s="126"/>
     </row>
     <row r="142" spans="1:16" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="33" t="s">
@@ -19526,135 +19545,127 @@
         <v>299</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="27"/>
-      <c r="C155" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="D155" s="101"/>
-      <c r="E155" s="101"/>
-      <c r="F155" s="101"/>
-      <c r="G155" s="101"/>
-      <c r="H155" s="101"/>
-      <c r="I155" s="101"/>
-      <c r="J155" s="101"/>
-      <c r="K155" s="102" t="s">
-        <v>226</v>
-      </c>
-      <c r="L155" s="102"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155" s="269" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="156" spans="1:14" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="27"/>
-      <c r="C156" s="101" t="s">
-        <v>227</v>
-      </c>
-      <c r="D156" s="101"/>
-      <c r="E156" s="101"/>
-      <c r="F156" s="101"/>
-      <c r="G156" s="101"/>
-      <c r="H156" s="101"/>
-      <c r="I156" s="101"/>
-      <c r="J156" s="101"/>
-      <c r="K156" s="102" t="s">
-        <v>228</v>
-      </c>
-      <c r="L156" s="102"/>
+      <c r="C156" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="D156" s="184"/>
+      <c r="E156" s="184"/>
+      <c r="F156" s="184"/>
+      <c r="G156" s="184"/>
+      <c r="H156" s="184"/>
+      <c r="I156" s="184"/>
+      <c r="J156" s="184"/>
+      <c r="K156" s="129" t="s">
+        <v>226</v>
+      </c>
+      <c r="L156" s="129"/>
     </row>
     <row r="157" spans="1:14" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="27"/>
-      <c r="C157" s="101" t="s">
-        <v>300</v>
-      </c>
-      <c r="D157" s="101"/>
-      <c r="E157" s="101"/>
-      <c r="F157" s="101"/>
-      <c r="G157" s="101"/>
-      <c r="H157" s="101"/>
-      <c r="I157" s="101"/>
-      <c r="J157" s="101"/>
-      <c r="K157" s="102" t="s">
-        <v>301</v>
-      </c>
-      <c r="L157" s="102"/>
+      <c r="C157" s="184" t="s">
+        <v>227</v>
+      </c>
+      <c r="D157" s="184"/>
+      <c r="E157" s="184"/>
+      <c r="F157" s="184"/>
+      <c r="G157" s="184"/>
+      <c r="H157" s="184"/>
+      <c r="I157" s="184"/>
+      <c r="J157" s="184"/>
+      <c r="K157" s="129" t="s">
+        <v>228</v>
+      </c>
+      <c r="L157" s="129"/>
     </row>
     <row r="158" spans="1:14" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="27"/>
-      <c r="C158" s="101" t="s">
+      <c r="C158" s="184" t="s">
+        <v>300</v>
+      </c>
+      <c r="D158" s="184"/>
+      <c r="E158" s="184"/>
+      <c r="F158" s="184"/>
+      <c r="G158" s="184"/>
+      <c r="H158" s="184"/>
+      <c r="I158" s="184"/>
+      <c r="J158" s="184"/>
+      <c r="K158" s="129" t="s">
+        <v>301</v>
+      </c>
+      <c r="L158" s="129"/>
+    </row>
+    <row r="159" spans="1:14" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="27"/>
+      <c r="C159" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="D158" s="101"/>
-      <c r="E158" s="101"/>
-      <c r="F158" s="101"/>
-      <c r="G158" s="101"/>
-      <c r="H158" s="101"/>
-      <c r="I158" s="101"/>
-      <c r="J158" s="101"/>
-      <c r="K158" s="102" t="s">
+      <c r="D159" s="184"/>
+      <c r="E159" s="184"/>
+      <c r="F159" s="184"/>
+      <c r="G159" s="184"/>
+      <c r="H159" s="184"/>
+      <c r="I159" s="184"/>
+      <c r="J159" s="184"/>
+      <c r="K159" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="L158" s="102"/>
-    </row>
-    <row r="159" spans="1:14" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L159" s="129"/>
+    </row>
     <row r="160" spans="1:14" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="1:13" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C161" s="189" t="s">
+    <row r="161" spans="1:13" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="1:13" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D161" s="189"/>
-      <c r="E161" s="189"/>
-      <c r="F161" s="188" t="s">
+      <c r="D162" s="108"/>
+      <c r="E162" s="108"/>
+      <c r="F162" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="G161" s="188"/>
-      <c r="H161" s="188"/>
-      <c r="I161" s="188"/>
-    </row>
-    <row r="162" spans="1:13" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C162" s="188" t="s">
+      <c r="G162" s="107"/>
+      <c r="H162" s="107"/>
+      <c r="I162" s="107"/>
+    </row>
+    <row r="163" spans="1:13" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="D162" s="188"/>
-      <c r="E162" s="188"/>
-      <c r="F162" s="188" t="s">
+      <c r="D163" s="107"/>
+      <c r="E163" s="107"/>
+      <c r="F163" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="G162" s="188"/>
-      <c r="H162" s="188"/>
-      <c r="I162" s="188"/>
-    </row>
-    <row r="163" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="188" t="s">
-        <v>33</v>
-      </c>
-      <c r="D163" s="188"/>
-      <c r="E163" s="188"/>
-      <c r="F163" s="188" t="s">
-        <v>30</v>
-      </c>
-      <c r="G163" s="188"/>
-      <c r="H163" s="188"/>
-      <c r="I163" s="188"/>
-      <c r="J163" s="5"/>
-      <c r="K163" s="5"/>
-      <c r="L163" s="5"/>
-      <c r="M163" s="5"/>
+      <c r="G163" s="107"/>
+      <c r="H163" s="107"/>
+      <c r="I163" s="107"/>
     </row>
     <row r="164" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
-      <c r="C164" s="185" t="s">
-        <v>34</v>
-      </c>
-      <c r="D164" s="186"/>
-      <c r="E164" s="187"/>
-      <c r="F164" s="188" t="s">
-        <v>298</v>
-      </c>
-      <c r="G164" s="188"/>
-      <c r="H164" s="188"/>
-      <c r="I164" s="188"/>
+      <c r="C164" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D164" s="107"/>
+      <c r="E164" s="107"/>
+      <c r="F164" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" s="107"/>
+      <c r="H164" s="107"/>
+      <c r="I164" s="107"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
@@ -19663,17 +19674,17 @@
     <row r="165" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
-      <c r="C165" s="185" t="s">
-        <v>35</v>
-      </c>
-      <c r="D165" s="186"/>
-      <c r="E165" s="187"/>
-      <c r="F165" s="188" t="s">
-        <v>27</v>
-      </c>
-      <c r="G165" s="188"/>
-      <c r="H165" s="188"/>
-      <c r="I165" s="188"/>
+      <c r="C165" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" s="102"/>
+      <c r="E165" s="103"/>
+      <c r="F165" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="G165" s="107"/>
+      <c r="H165" s="107"/>
+      <c r="I165" s="107"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
@@ -19682,17 +19693,17 @@
     <row r="166" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
-      <c r="C166" s="185" t="s">
-        <v>36</v>
-      </c>
-      <c r="D166" s="186"/>
-      <c r="E166" s="187"/>
-      <c r="F166" s="188" t="s">
-        <v>234</v>
-      </c>
-      <c r="G166" s="188"/>
-      <c r="H166" s="188"/>
-      <c r="I166" s="188"/>
+      <c r="C166" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D166" s="102"/>
+      <c r="E166" s="103"/>
+      <c r="F166" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="G166" s="107"/>
+      <c r="H166" s="107"/>
+      <c r="I166" s="107"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
@@ -19701,17 +19712,17 @@
     <row r="167" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
-      <c r="C167" s="185" t="s">
-        <v>38</v>
-      </c>
-      <c r="D167" s="186"/>
-      <c r="E167" s="187"/>
-      <c r="F167" s="185">
-        <v>20250820</v>
-      </c>
-      <c r="G167" s="186"/>
-      <c r="H167" s="186"/>
-      <c r="I167" s="187"/>
+      <c r="C167" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="D167" s="102"/>
+      <c r="E167" s="103"/>
+      <c r="F167" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="G167" s="107"/>
+      <c r="H167" s="107"/>
+      <c r="I167" s="107"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
       <c r="L167" s="5"/>
@@ -19720,136 +19731,51 @@
     <row r="168" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
-      <c r="C168" s="185" t="s">
-        <v>37</v>
-      </c>
-      <c r="D168" s="186"/>
-      <c r="E168" s="187"/>
-      <c r="F168" s="185">
+      <c r="C168" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D168" s="102"/>
+      <c r="E168" s="103"/>
+      <c r="F168" s="101">
         <v>20250820</v>
       </c>
-      <c r="G168" s="186"/>
-      <c r="H168" s="186"/>
-      <c r="I168" s="187"/>
+      <c r="G168" s="102"/>
+      <c r="H168" s="102"/>
+      <c r="I168" s="103"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
     </row>
+    <row r="169" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="D169" s="102"/>
+      <c r="E169" s="103"/>
+      <c r="F169" s="101">
+        <v>20250820</v>
+      </c>
+      <c r="G169" s="102"/>
+      <c r="H169" s="102"/>
+      <c r="I169" s="103"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="C167:E167"/>
-    <mergeCell ref="F167:I167"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="F168:I168"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="F164:I164"/>
-    <mergeCell ref="C165:E165"/>
-    <mergeCell ref="F165:I165"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="F166:I166"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="F161:I161"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="F162:I162"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="F163:I163"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="B126:N126"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="K137:L137"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="B139:N139"/>
-    <mergeCell ref="B141:N141"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="K136:L136"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="B83:N83"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="J86:N87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="B72:N72"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="B55:N55"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B49:N49"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B11:N11"/>
-    <mergeCell ref="B40:N40"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C155:J155"/>
-    <mergeCell ref="K155:L155"/>
     <mergeCell ref="C156:J156"/>
     <mergeCell ref="K156:L156"/>
     <mergeCell ref="C157:J157"/>
     <mergeCell ref="K157:L157"/>
     <mergeCell ref="C158:J158"/>
     <mergeCell ref="K158:L158"/>
+    <mergeCell ref="C159:J159"/>
+    <mergeCell ref="K159:L159"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C99:D99"/>
@@ -19866,6 +19792,110 @@
     <mergeCell ref="J105:K105"/>
     <mergeCell ref="H106:I106"/>
     <mergeCell ref="J106:K106"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B11:N11"/>
+    <mergeCell ref="B40:N40"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B49:N49"/>
+    <mergeCell ref="B72:N72"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="B55:N55"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="B83:N83"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="J86:N87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="B139:N139"/>
+    <mergeCell ref="B141:N141"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="F168:I168"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="F169:I169"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="F165:I165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="F166:I166"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="F167:I167"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="F162:I162"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="F163:I163"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="F164:I164"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="B126:N126"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <conditionalFormatting sqref="C23:N30">
     <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
@@ -20994,10 +21024,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DB4B7C-1A8F-4C59-9863-66339052AF2E}">
-  <dimension ref="A1:O178"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165:XFD165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21017,38 +21047,38 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="199"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="243"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="199"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="243"/>
       <c r="J3" s="30"/>
       <c r="K3" s="35" t="s">
         <v>18</v>
@@ -21058,83 +21088,83 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="199"/>
-      <c r="J4" s="128" t="s">
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="243"/>
+      <c r="J4" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="129"/>
+      <c r="K4" s="177"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="238" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="199"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="243"/>
     </row>
     <row r="6" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="238" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="196"/>
+      <c r="B6" s="239"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="240"/>
       <c r="E6" s="65"/>
       <c r="F6" s="66"/>
       <c r="G6" s="67"/>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="202"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="246"/>
     </row>
     <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="199"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="243"/>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="208"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="183"/>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="32">
         <v>16</v>
       </c>
@@ -21153,12 +21183,12 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="32"/>
       <c r="F11" s="10" t="b">
         <f>MOD($E$11,12)=0</f>
@@ -21175,21 +21205,21 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="141"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="164"/>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
@@ -22636,21 +22666,21 @@
       <c r="O40" s="19"/>
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="152" t="s">
+      <c r="B41" s="159" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="154"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
+      <c r="K41" s="160"/>
+      <c r="L41" s="160"/>
+      <c r="M41" s="160"/>
+      <c r="N41" s="161"/>
       <c r="O41" s="19"/>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22677,11 +22707,11 @@
       <c r="E43" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="113" t="str">
+      <c r="F43" s="115" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G43" s="113"/>
+      <c r="G43" s="115"/>
       <c r="H43" s="26"/>
       <c r="K43" s="43"/>
       <c r="L43" s="43"/>
@@ -22694,18 +22724,18 @@
       <c r="B44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="203" t="s">
+      <c r="C44" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="203"/>
+      <c r="D44" s="230"/>
       <c r="E44" s="69">
         <v>4</v>
       </c>
-      <c r="F44" s="159">
+      <c r="F44" s="127">
         <f>IF(ISNUMBER($E$10),E44*$E$10*1.1,E44*$E$11*1.1)</f>
         <v>70.400000000000006</v>
       </c>
-      <c r="G44" s="160"/>
+      <c r="G44" s="128"/>
       <c r="H44" s="53" t="s">
         <v>20</v>
       </c>
@@ -22718,18 +22748,18 @@
     <row r="45" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="204" t="s">
+      <c r="C45" s="234" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="205"/>
+      <c r="D45" s="235"/>
       <c r="E45" s="20">
         <v>4</v>
       </c>
-      <c r="F45" s="206">
+      <c r="F45" s="204">
         <f>IF(ISNUMBER($E$10),E45*$E$10*1.1,E45*$E$11*1.1)</f>
         <v>70.400000000000006</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="205"/>
       <c r="H45" s="70" t="s">
         <v>20</v>
       </c>
@@ -22748,11 +22778,11 @@
         <f>SUM(E44:E45)</f>
         <v>8</v>
       </c>
-      <c r="F46" s="159">
+      <c r="F46" s="127">
         <f>+SUM(F44:G45)</f>
         <v>140.80000000000001</v>
       </c>
-      <c r="G46" s="160"/>
+      <c r="G46" s="128"/>
       <c r="H46" s="71" t="s">
         <v>20</v>
       </c>
@@ -22767,21 +22797,21 @@
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="111"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="112"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="166"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="166"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="166"/>
+      <c r="L47" s="166"/>
+      <c r="M47" s="166"/>
+      <c r="N47" s="167"/>
       <c r="O47" s="19"/>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22804,11 +22834,11 @@
       <c r="E49" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="212" t="str">
+      <c r="F49" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G49" s="212"/>
+      <c r="G49" s="206"/>
       <c r="H49" s="26"/>
       <c r="O49" s="19"/>
     </row>
@@ -22817,17 +22847,17 @@
       <c r="B50" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="215" t="s">
+      <c r="C50" s="217" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="216"/>
+      <c r="D50" s="218"/>
       <c r="E50" s="72">
         <v>11</v>
       </c>
-      <c r="F50" s="115" t="s">
+      <c r="F50" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="116"/>
+      <c r="G50" s="118"/>
       <c r="H50" s="70" t="s">
         <v>20</v>
       </c>
@@ -22835,18 +22865,18 @@
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
-      <c r="C51" s="217" t="s">
+      <c r="C51" s="215" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="218"/>
+      <c r="D51" s="216"/>
       <c r="E51" s="73">
         <v>2</v>
       </c>
-      <c r="F51" s="159">
+      <c r="F51" s="127">
         <f>IF(ISNUMBER($E$10),E51*$E$10*1.1,E51*$E$11*1.1)</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="G51" s="160"/>
+      <c r="G51" s="128"/>
       <c r="H51" s="71" t="s">
         <v>20</v>
       </c>
@@ -22855,18 +22885,18 @@
     <row r="52" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="215" t="s">
+      <c r="C52" s="217" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="216"/>
+      <c r="D52" s="218"/>
       <c r="E52" s="54">
         <v>2</v>
       </c>
-      <c r="F52" s="206">
+      <c r="F52" s="204">
         <f>IF(ISNUMBER($E$10),E52*$E$10*1.1,E52*$E$11*1.1)</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="G52" s="207"/>
+      <c r="G52" s="205"/>
       <c r="H52" s="70" t="s">
         <v>20</v>
       </c>
@@ -22875,19 +22905,19 @@
     <row r="53" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="210" t="s">
+      <c r="C53" s="226" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="211"/>
+      <c r="D53" s="227"/>
       <c r="E53" s="74">
         <f>SUM(E50:E52)</f>
         <v>15</v>
       </c>
-      <c r="F53" s="159">
+      <c r="F53" s="127">
         <f>+SUM(F51:G52)</f>
         <v>70.400000000000006</v>
       </c>
-      <c r="G53" s="160"/>
+      <c r="G53" s="128"/>
       <c r="H53" s="71" t="s">
         <v>20</v>
       </c>
@@ -22936,21 +22966,21 @@
     </row>
     <row r="57" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
-      <c r="B57" s="152" t="s">
+      <c r="B57" s="159" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-      <c r="I57" s="153"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="153"/>
-      <c r="L57" s="153"/>
-      <c r="M57" s="153"/>
-      <c r="N57" s="154"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="160"/>
+      <c r="G57" s="160"/>
+      <c r="H57" s="160"/>
+      <c r="I57" s="160"/>
+      <c r="J57" s="160"/>
+      <c r="K57" s="160"/>
+      <c r="L57" s="160"/>
+      <c r="M57" s="160"/>
+      <c r="N57" s="161"/>
       <c r="O57" s="19"/>
     </row>
     <row r="58" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22970,11 +23000,11 @@
       <c r="E59" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="212" t="str">
+      <c r="F59" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G59" s="212"/>
+      <c r="G59" s="206"/>
       <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22982,17 +23012,17 @@
       <c r="B60" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="213" t="s">
+      <c r="C60" s="232" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="214"/>
+      <c r="D60" s="233"/>
       <c r="E60" s="72">
         <v>15</v>
       </c>
-      <c r="F60" s="115" t="s">
+      <c r="F60" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G60" s="116"/>
+      <c r="G60" s="118"/>
       <c r="H60" s="70" t="s">
         <v>20</v>
       </c>
@@ -23002,18 +23032,18 @@
     </row>
     <row r="61" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
-      <c r="C61" s="217" t="s">
+      <c r="C61" s="215" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="218"/>
+      <c r="D61" s="216"/>
       <c r="E61" s="73">
         <v>2</v>
       </c>
-      <c r="F61" s="159">
+      <c r="F61" s="127">
         <f>IF(ISNUMBER($E$10),E61*$E$10*1.1,E61*$E$11*1.1)</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="G61" s="160"/>
+      <c r="G61" s="128"/>
       <c r="H61" s="71" t="s">
         <v>20</v>
       </c>
@@ -23021,18 +23051,18 @@
     </row>
     <row r="62" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
-      <c r="C62" s="203" t="s">
+      <c r="C62" s="230" t="s">
         <v>169</v>
       </c>
-      <c r="D62" s="203"/>
+      <c r="D62" s="230"/>
       <c r="E62" s="54">
         <v>2</v>
       </c>
-      <c r="F62" s="223">
+      <c r="F62" s="231">
         <f>IF(ISNUMBER($E$10),E62*$E$10*1.1,E62*$E$11*1.1)</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="G62" s="223"/>
+      <c r="G62" s="231"/>
       <c r="H62" s="53" t="s">
         <v>20</v>
       </c>
@@ -23040,18 +23070,18 @@
     </row>
     <row r="63" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
-      <c r="C63" s="219" t="s">
+      <c r="C63" s="197" t="s">
         <v>154</v>
       </c>
-      <c r="D63" s="220"/>
+      <c r="D63" s="198"/>
       <c r="E63" s="81">
         <v>1</v>
       </c>
-      <c r="F63" s="221">
+      <c r="F63" s="228">
         <f>IF(ISNUMBER($E$10),E63*$E$10*1.1,E63*$E$11*1.1)</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="G63" s="222"/>
+      <c r="G63" s="229"/>
       <c r="H63" s="98" t="s">
         <v>20</v>
       </c>
@@ -23059,19 +23089,19 @@
     </row>
     <row r="64" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
-      <c r="C64" s="103" t="s">
+      <c r="C64" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="104"/>
+      <c r="D64" s="186"/>
       <c r="E64" s="73">
         <f>SUM(E60:E63)</f>
         <v>20</v>
       </c>
-      <c r="F64" s="159">
+      <c r="F64" s="127">
         <f>+SUM(F61:G63)</f>
         <v>88</v>
       </c>
-      <c r="G64" s="160"/>
+      <c r="G64" s="128"/>
       <c r="H64" s="71" t="s">
         <v>20</v>
       </c>
@@ -23109,21 +23139,21 @@
     </row>
     <row r="67" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
-      <c r="B67" s="161" t="s">
+      <c r="B67" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="C67" s="162"/>
-      <c r="D67" s="162"/>
-      <c r="E67" s="162"/>
-      <c r="F67" s="162"/>
-      <c r="G67" s="162"/>
-      <c r="H67" s="162"/>
-      <c r="I67" s="162"/>
-      <c r="J67" s="162"/>
-      <c r="K67" s="162"/>
-      <c r="L67" s="162"/>
-      <c r="M67" s="162"/>
-      <c r="N67" s="163"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="125"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="125"/>
+      <c r="K67" s="125"/>
+      <c r="L67" s="125"/>
+      <c r="M67" s="125"/>
+      <c r="N67" s="126"/>
     </row>
     <row r="68" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
@@ -23152,11 +23182,11 @@
       <c r="E69" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="212" t="str">
+      <c r="F69" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G69" s="212"/>
+      <c r="G69" s="206"/>
       <c r="H69" s="26"/>
       <c r="K69" s="41"/>
       <c r="L69" s="41"/>
@@ -23168,17 +23198,17 @@
       <c r="B70" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="215" t="s">
+      <c r="C70" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="D70" s="216"/>
+      <c r="D70" s="218"/>
       <c r="E70" s="72">
         <v>20</v>
       </c>
-      <c r="F70" s="115" t="s">
+      <c r="F70" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="116"/>
+      <c r="G70" s="118"/>
       <c r="H70" s="70" t="s">
         <v>20</v>
       </c>
@@ -23192,18 +23222,18 @@
     </row>
     <row r="71" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
-      <c r="C71" s="217" t="s">
+      <c r="C71" s="215" t="s">
         <v>174</v>
       </c>
-      <c r="D71" s="218"/>
+      <c r="D71" s="216"/>
       <c r="E71" s="73">
         <v>5</v>
       </c>
-      <c r="F71" s="159">
+      <c r="F71" s="127">
         <f>IF(ISNUMBER($E$10),E71*$E$10*1.1,E71*$E$11*1.1)</f>
         <v>88</v>
       </c>
-      <c r="G71" s="160"/>
+      <c r="G71" s="128"/>
       <c r="H71" s="71" t="s">
         <v>20</v>
       </c>
@@ -23214,18 +23244,18 @@
     </row>
     <row r="72" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
-      <c r="C72" s="210" t="s">
+      <c r="C72" s="226" t="s">
         <v>175</v>
       </c>
-      <c r="D72" s="211"/>
+      <c r="D72" s="227"/>
       <c r="E72" s="54">
         <v>2.5</v>
       </c>
-      <c r="F72" s="159">
+      <c r="F72" s="127">
         <f>IF(ISNUMBER($E$10),E72*$E$10*1.1,E72*$E$11*1.1)</f>
         <v>44</v>
       </c>
-      <c r="G72" s="160"/>
+      <c r="G72" s="128"/>
       <c r="H72" s="71" t="s">
         <v>20</v>
       </c>
@@ -23236,37 +23266,37 @@
     </row>
     <row r="73" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
-      <c r="C73" s="224" t="s">
+      <c r="C73" s="219" t="s">
         <v>154</v>
       </c>
-      <c r="D73" s="225"/>
+      <c r="D73" s="220"/>
       <c r="E73" s="54">
         <v>22.5</v>
       </c>
-      <c r="F73" s="206">
+      <c r="F73" s="204">
         <f>IF(ISNUMBER($E$10),E73*$E$10*1.1,E73*$E$11*1.1)</f>
         <v>396.00000000000006</v>
       </c>
-      <c r="G73" s="207"/>
+      <c r="G73" s="205"/>
       <c r="H73" s="70" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
-      <c r="C74" s="103" t="s">
+      <c r="C74" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D74" s="104"/>
+      <c r="D74" s="186"/>
       <c r="E74" s="74">
         <f>SUM(E70:E73)</f>
         <v>50</v>
       </c>
-      <c r="F74" s="159">
+      <c r="F74" s="127">
         <f>+SUM(F71:G73)</f>
         <v>528</v>
       </c>
-      <c r="G74" s="160"/>
+      <c r="G74" s="128"/>
       <c r="H74" s="71" t="s">
         <v>20</v>
       </c>
@@ -23300,21 +23330,21 @@
     </row>
     <row r="77" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="155" t="s">
+      <c r="B77" s="148" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="156"/>
-      <c r="D77" s="156"/>
-      <c r="E77" s="156"/>
-      <c r="F77" s="156"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="156"/>
-      <c r="I77" s="156"/>
-      <c r="J77" s="156"/>
-      <c r="K77" s="156"/>
-      <c r="L77" s="156"/>
-      <c r="M77" s="156"/>
-      <c r="N77" s="157"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="149"/>
+      <c r="E77" s="149"/>
+      <c r="F77" s="149"/>
+      <c r="G77" s="149"/>
+      <c r="H77" s="149"/>
+      <c r="I77" s="149"/>
+      <c r="J77" s="149"/>
+      <c r="K77" s="149"/>
+      <c r="L77" s="149"/>
+      <c r="M77" s="149"/>
+      <c r="N77" s="150"/>
     </row>
     <row r="78" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
@@ -23416,21 +23446,21 @@
     </row>
     <row r="83" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
-      <c r="B83" s="107" t="s">
+      <c r="B83" s="187" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="108"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="108"/>
-      <c r="G83" s="108"/>
-      <c r="H83" s="108"/>
-      <c r="I83" s="108"/>
-      <c r="J83" s="108"/>
-      <c r="K83" s="108"/>
-      <c r="L83" s="108"/>
-      <c r="M83" s="108"/>
-      <c r="N83" s="109"/>
+      <c r="C83" s="188"/>
+      <c r="D83" s="188"/>
+      <c r="E83" s="188"/>
+      <c r="F83" s="188"/>
+      <c r="G83" s="188"/>
+      <c r="H83" s="188"/>
+      <c r="I83" s="188"/>
+      <c r="J83" s="188"/>
+      <c r="K83" s="188"/>
+      <c r="L83" s="188"/>
+      <c r="M83" s="188"/>
+      <c r="N83" s="189"/>
     </row>
     <row r="84" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12"/>
@@ -23453,11 +23483,11 @@
       <c r="E85" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="212" t="str">
+      <c r="F85" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G85" s="212"/>
+      <c r="G85" s="206"/>
       <c r="H85" s="26"/>
       <c r="O85"/>
     </row>
@@ -23466,17 +23496,17 @@
       <c r="B86" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="224" t="s">
+      <c r="C86" s="219" t="s">
         <v>190</v>
       </c>
-      <c r="D86" s="225"/>
+      <c r="D86" s="220"/>
       <c r="E86" s="72">
         <v>5</v>
       </c>
-      <c r="F86" s="115" t="s">
+      <c r="F86" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="116"/>
+      <c r="G86" s="118"/>
       <c r="H86" s="70" t="s">
         <v>20</v>
       </c>
@@ -23485,18 +23515,18 @@
     </row>
     <row r="87" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
-      <c r="C87" s="217" t="s">
+      <c r="C87" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="D87" s="218"/>
+      <c r="D87" s="216"/>
       <c r="E87" s="73">
         <v>4</v>
       </c>
-      <c r="F87" s="159">
+      <c r="F87" s="127">
         <f>IF(ISNUMBER($E$10),E87*$E$10*1.1,E87*$E$11*1.1)</f>
         <v>70.400000000000006</v>
       </c>
-      <c r="G87" s="160"/>
+      <c r="G87" s="128"/>
       <c r="H87" s="71" t="s">
         <v>20</v>
       </c>
@@ -23506,18 +23536,18 @@
     <row r="88" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="215" t="s">
+      <c r="C88" s="217" t="s">
         <v>94</v>
       </c>
-      <c r="D88" s="216"/>
+      <c r="D88" s="218"/>
       <c r="E88" s="77">
         <v>1</v>
       </c>
-      <c r="F88" s="206">
+      <c r="F88" s="204">
         <f>IF(ISNUMBER($E$10),E88*$E$10*1.1,E88*$E$11*1.1)</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="G88" s="207"/>
+      <c r="G88" s="205"/>
       <c r="H88" s="70" t="s">
         <v>20</v>
       </c>
@@ -23526,19 +23556,19 @@
     <row r="89" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="103" t="s">
+      <c r="C89" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D89" s="104"/>
+      <c r="D89" s="186"/>
       <c r="E89" s="74">
         <f>SUM(E85:E88)</f>
         <v>10</v>
       </c>
-      <c r="F89" s="159">
+      <c r="F89" s="127">
         <f>+SUM(F86:G88)</f>
         <v>88</v>
       </c>
-      <c r="G89" s="160"/>
+      <c r="G89" s="128"/>
       <c r="H89" s="71" t="s">
         <v>20</v>
       </c>
@@ -23629,21 +23659,21 @@
     </row>
     <row r="94" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94"/>
-      <c r="B94" s="226" t="s">
+      <c r="B94" s="221" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="227"/>
-      <c r="D94" s="227"/>
-      <c r="E94" s="227"/>
-      <c r="F94" s="227"/>
-      <c r="G94" s="227"/>
-      <c r="H94" s="227"/>
-      <c r="I94" s="227"/>
-      <c r="J94" s="227"/>
-      <c r="K94" s="227"/>
-      <c r="L94" s="227"/>
-      <c r="M94" s="227"/>
-      <c r="N94" s="228"/>
+      <c r="C94" s="222"/>
+      <c r="D94" s="222"/>
+      <c r="E94" s="222"/>
+      <c r="F94" s="222"/>
+      <c r="G94" s="222"/>
+      <c r="H94" s="222"/>
+      <c r="I94" s="222"/>
+      <c r="J94" s="222"/>
+      <c r="K94" s="222"/>
+      <c r="L94" s="222"/>
+      <c r="M94" s="222"/>
+      <c r="N94" s="223"/>
       <c r="O94"/>
     </row>
     <row r="95" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23669,11 +23699,11 @@
       <c r="E96" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F96" s="212" t="str">
+      <c r="F96" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G96" s="212"/>
+      <c r="G96" s="206"/>
       <c r="H96" s="26"/>
       <c r="L96"/>
       <c r="M96"/>
@@ -23685,17 +23715,17 @@
       <c r="B97" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="224" t="s">
+      <c r="C97" s="219" t="s">
         <v>198</v>
       </c>
-      <c r="D97" s="225"/>
+      <c r="D97" s="220"/>
       <c r="E97" s="72">
         <v>10</v>
       </c>
-      <c r="F97" s="115" t="s">
+      <c r="F97" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="116"/>
+      <c r="G97" s="118"/>
       <c r="H97" s="70" t="s">
         <v>20</v>
       </c>
@@ -23707,18 +23737,18 @@
     <row r="98" spans="1:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="229" t="s">
+      <c r="C98" s="224" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="230"/>
+      <c r="D98" s="225"/>
       <c r="E98" s="78">
         <v>30</v>
       </c>
-      <c r="F98" s="231">
+      <c r="F98" s="210">
         <f>IF(ISNUMBER($E$10),E98*$E$10*1.1,E98*$E$11*1.1)</f>
         <v>528</v>
       </c>
-      <c r="G98" s="232"/>
+      <c r="G98" s="211"/>
       <c r="H98" s="79" t="s">
         <v>20</v>
       </c>
@@ -23733,19 +23763,19 @@
     <row r="99" spans="1:15" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="103" t="s">
+      <c r="C99" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="104"/>
+      <c r="D99" s="186"/>
       <c r="E99" s="73">
         <f>SUM(E95:E98)</f>
         <v>40</v>
       </c>
-      <c r="F99" s="159">
+      <c r="F99" s="127">
         <f>+SUM(F96:G98)</f>
         <v>528</v>
       </c>
-      <c r="G99" s="160"/>
+      <c r="G99" s="128"/>
       <c r="H99" s="71" t="s">
         <v>20</v>
       </c>
@@ -23779,21 +23809,21 @@
     </row>
     <row r="101" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
-      <c r="B101" s="155" t="s">
+      <c r="B101" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="156"/>
-      <c r="D101" s="156"/>
-      <c r="E101" s="156"/>
-      <c r="F101" s="156"/>
-      <c r="G101" s="156"/>
-      <c r="H101" s="156"/>
-      <c r="I101" s="156"/>
-      <c r="J101" s="156"/>
-      <c r="K101" s="156"/>
-      <c r="L101" s="156"/>
-      <c r="M101" s="156"/>
-      <c r="N101" s="157"/>
+      <c r="C101" s="149"/>
+      <c r="D101" s="149"/>
+      <c r="E101" s="149"/>
+      <c r="F101" s="149"/>
+      <c r="G101" s="149"/>
+      <c r="H101" s="149"/>
+      <c r="I101" s="149"/>
+      <c r="J101" s="149"/>
+      <c r="K101" s="149"/>
+      <c r="L101" s="149"/>
+      <c r="M101" s="149"/>
+      <c r="N101" s="150"/>
       <c r="O101"/>
     </row>
     <row r="102" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23817,21 +23847,21 @@
     </row>
     <row r="103" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
-      <c r="B103" s="110" t="s">
+      <c r="B103" s="165" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="111"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="111"/>
-      <c r="G103" s="111"/>
-      <c r="H103" s="111"/>
-      <c r="I103" s="111"/>
-      <c r="J103" s="111"/>
-      <c r="K103" s="111"/>
-      <c r="L103" s="111"/>
-      <c r="M103" s="111"/>
-      <c r="N103" s="112"/>
+      <c r="C103" s="166"/>
+      <c r="D103" s="166"/>
+      <c r="E103" s="166"/>
+      <c r="F103" s="166"/>
+      <c r="G103" s="166"/>
+      <c r="H103" s="166"/>
+      <c r="I103" s="166"/>
+      <c r="J103" s="166"/>
+      <c r="K103" s="166"/>
+      <c r="L103" s="166"/>
+      <c r="M103" s="166"/>
+      <c r="N103" s="167"/>
     </row>
     <row r="104" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12"/>
@@ -23853,11 +23883,11 @@
       <c r="E105" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="212" t="str">
+      <c r="F105" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G105" s="212"/>
+      <c r="G105" s="206"/>
       <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23865,17 +23895,17 @@
       <c r="B106" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C106" s="224" t="s">
+      <c r="C106" s="219" t="s">
         <v>204</v>
       </c>
-      <c r="D106" s="225"/>
+      <c r="D106" s="220"/>
       <c r="E106" s="72">
         <v>20</v>
       </c>
-      <c r="F106" s="115" t="s">
+      <c r="F106" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G106" s="116"/>
+      <c r="G106" s="118"/>
       <c r="H106" s="70" t="s">
         <v>20</v>
       </c>
@@ -23883,18 +23913,18 @@
     </row>
     <row r="107" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
-      <c r="C107" s="217" t="s">
+      <c r="C107" s="215" t="s">
         <v>106</v>
       </c>
-      <c r="D107" s="218"/>
+      <c r="D107" s="216"/>
       <c r="E107" s="73">
         <v>2.5</v>
       </c>
-      <c r="F107" s="159">
+      <c r="F107" s="127">
         <f>IF(ISNUMBER($E$10),E107*$E$10*1.1,E107*$E$11*1.1)</f>
         <v>44</v>
       </c>
-      <c r="G107" s="160"/>
+      <c r="G107" s="128"/>
       <c r="H107" s="71" t="s">
         <v>20</v>
       </c>
@@ -23903,18 +23933,18 @@
     <row r="108" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="215" t="s">
+      <c r="C108" s="217" t="s">
         <v>205</v>
       </c>
-      <c r="D108" s="216"/>
+      <c r="D108" s="218"/>
       <c r="E108" s="77">
         <v>1.5</v>
       </c>
-      <c r="F108" s="206">
+      <c r="F108" s="204">
         <f t="shared" ref="F108" si="0">E108*$E$11*1.1</f>
         <v>0</v>
       </c>
-      <c r="G108" s="207"/>
+      <c r="G108" s="205"/>
       <c r="H108" s="70" t="s">
         <v>20</v>
       </c>
@@ -23922,19 +23952,19 @@
     <row r="109" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="103" t="s">
+      <c r="C109" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D109" s="104"/>
+      <c r="D109" s="186"/>
       <c r="E109" s="73">
         <f>SUM(E105:E108)</f>
         <v>24</v>
       </c>
-      <c r="F109" s="159">
+      <c r="F109" s="127">
         <f>+SUM(F106:G108)</f>
         <v>44</v>
       </c>
-      <c r="G109" s="160"/>
+      <c r="G109" s="128"/>
       <c r="H109" s="71" t="s">
         <v>20</v>
       </c>
@@ -24003,21 +24033,21 @@
     </row>
     <row r="113" spans="1:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
-      <c r="B113" s="174" t="s">
+      <c r="B113" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="236"/>
-      <c r="D113" s="236"/>
-      <c r="E113" s="236"/>
-      <c r="F113" s="236"/>
-      <c r="G113" s="236"/>
-      <c r="H113" s="236"/>
-      <c r="I113" s="236"/>
-      <c r="J113" s="236"/>
-      <c r="K113" s="236"/>
-      <c r="L113" s="236"/>
-      <c r="M113" s="236"/>
-      <c r="N113" s="237"/>
+      <c r="C113" s="212"/>
+      <c r="D113" s="212"/>
+      <c r="E113" s="212"/>
+      <c r="F113" s="212"/>
+      <c r="G113" s="212"/>
+      <c r="H113" s="212"/>
+      <c r="I113" s="212"/>
+      <c r="J113" s="212"/>
+      <c r="K113" s="212"/>
+      <c r="L113" s="212"/>
+      <c r="M113" s="212"/>
+      <c r="N113" s="213"/>
     </row>
     <row r="114" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12"/>
@@ -24029,14 +24059,14 @@
       <c r="E114" s="30"/>
       <c r="F114" s="30"/>
       <c r="G114" s="30"/>
-      <c r="H114" s="118" t="s">
+      <c r="H114" s="191" t="s">
         <v>113</v>
       </c>
-      <c r="I114" s="238"/>
-      <c r="J114" s="117" t="s">
+      <c r="I114" s="214"/>
+      <c r="J114" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="K114" s="118"/>
+      <c r="K114" s="191"/>
       <c r="L114" s="30"/>
       <c r="M114" s="30"/>
       <c r="N114" s="30"/>
@@ -24049,14 +24079,14 @@
       <c r="E115" s="30"/>
       <c r="F115" s="30"/>
       <c r="G115" s="30"/>
-      <c r="H115" s="119" t="s">
+      <c r="H115" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="I115" s="119"/>
-      <c r="J115" s="119" t="s">
+      <c r="I115" s="192"/>
+      <c r="J115" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="K115" s="119"/>
+      <c r="K115" s="192"/>
       <c r="L115" s="30"/>
       <c r="M115" s="30"/>
       <c r="N115" s="30"/>
@@ -24069,14 +24099,14 @@
       <c r="E116" s="30"/>
       <c r="F116" s="30"/>
       <c r="G116" s="30"/>
-      <c r="H116" s="120" t="s">
+      <c r="H116" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="I116" s="120"/>
-      <c r="J116" s="120" t="s">
+      <c r="I116" s="193"/>
+      <c r="J116" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="K116" s="120"/>
+      <c r="K116" s="193"/>
       <c r="L116" s="30"/>
       <c r="M116" s="30"/>
       <c r="N116" s="30"/>
@@ -24572,11 +24602,11 @@
       <c r="E128" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F128" s="212" t="str">
+      <c r="F128" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G128" s="212"/>
+      <c r="G128" s="206"/>
       <c r="K128" s="41"/>
       <c r="L128" s="41"/>
       <c r="M128" s="41"/>
@@ -24587,17 +24617,17 @@
       <c r="B129" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C129" s="233" t="s">
+      <c r="C129" s="207" t="s">
         <v>211</v>
       </c>
-      <c r="D129" s="234"/>
+      <c r="D129" s="208"/>
       <c r="E129" s="54">
         <v>24</v>
       </c>
-      <c r="F129" s="144" t="s">
+      <c r="F129" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="G129" s="145"/>
+      <c r="G129" s="139"/>
       <c r="H129" s="53" t="s">
         <v>20</v>
       </c>
@@ -24605,17 +24635,17 @@
     <row r="130" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="219" t="s">
+      <c r="C130" s="197" t="s">
         <v>212</v>
       </c>
-      <c r="D130" s="220"/>
+      <c r="D130" s="198"/>
       <c r="E130" s="77">
         <v>2</v>
       </c>
-      <c r="F130" s="115" t="s">
+      <c r="F130" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G130" s="116"/>
+      <c r="G130" s="118"/>
       <c r="H130" s="70" t="s">
         <v>20</v>
       </c>
@@ -24626,37 +24656,37 @@
     </row>
     <row r="131" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
-      <c r="C131" s="235" t="s">
+      <c r="C131" s="209" t="s">
         <v>214</v>
       </c>
-      <c r="D131" s="235"/>
+      <c r="D131" s="209"/>
       <c r="E131" s="78">
         <v>12</v>
       </c>
-      <c r="F131" s="231">
+      <c r="F131" s="210">
         <f>IF(ISNUMBER($E$10),E131*$E$10*1.1,E131*$E$11*1.1)</f>
         <v>211.20000000000002</v>
       </c>
-      <c r="G131" s="232"/>
+      <c r="G131" s="211"/>
       <c r="H131" s="79" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="13"/>
-      <c r="C132" s="103" t="s">
+      <c r="C132" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D132" s="104"/>
+      <c r="D132" s="186"/>
       <c r="E132" s="73">
         <f>SUM(E129:E131)</f>
         <v>38</v>
       </c>
-      <c r="F132" s="159">
+      <c r="F132" s="127">
         <f>+SUM(F129:G131)</f>
         <v>211.20000000000002</v>
       </c>
-      <c r="G132" s="160"/>
+      <c r="G132" s="128"/>
       <c r="H132" s="71" t="s">
         <v>20</v>
       </c>
@@ -24696,21 +24726,21 @@
     </row>
     <row r="136" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
-      <c r="B136" s="190" t="s">
+      <c r="B136" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="C136" s="191"/>
-      <c r="D136" s="191"/>
-      <c r="E136" s="191"/>
-      <c r="F136" s="191"/>
-      <c r="G136" s="191"/>
-      <c r="H136" s="191"/>
-      <c r="I136" s="191"/>
-      <c r="J136" s="191"/>
-      <c r="K136" s="191"/>
-      <c r="L136" s="191"/>
-      <c r="M136" s="191"/>
-      <c r="N136" s="192"/>
+      <c r="C136" s="113"/>
+      <c r="D136" s="113"/>
+      <c r="E136" s="113"/>
+      <c r="F136" s="113"/>
+      <c r="G136" s="113"/>
+      <c r="H136" s="113"/>
+      <c r="I136" s="113"/>
+      <c r="J136" s="113"/>
+      <c r="K136" s="113"/>
+      <c r="L136" s="113"/>
+      <c r="M136" s="113"/>
+      <c r="N136" s="114"/>
     </row>
     <row r="137" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12"/>
@@ -24738,11 +24768,11 @@
       <c r="E139" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F139" s="113" t="str">
+      <c r="F139" s="115" t="str">
         <f>CONCATENATE(" Volume for ", $E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G139" s="113"/>
+      <c r="G139" s="115"/>
       <c r="K139" s="41"/>
       <c r="L139" s="41"/>
       <c r="M139" s="41"/>
@@ -24753,17 +24783,17 @@
       <c r="B140" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C140" s="219" t="s">
+      <c r="C140" s="197" t="s">
         <v>125</v>
       </c>
-      <c r="D140" s="220"/>
+      <c r="D140" s="198"/>
       <c r="E140" s="77">
         <v>20</v>
       </c>
-      <c r="F140" s="115" t="s">
+      <c r="F140" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G140" s="116"/>
+      <c r="G140" s="118"/>
       <c r="H140" s="70" t="s">
         <v>20</v>
       </c>
@@ -24771,18 +24801,18 @@
     <row r="141" spans="1:15" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="13"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="239" t="s">
+      <c r="C141" s="202" t="s">
         <v>217</v>
       </c>
-      <c r="D141" s="240"/>
+      <c r="D141" s="203"/>
       <c r="E141" s="73">
         <v>22.5</v>
       </c>
-      <c r="F141" s="159">
+      <c r="F141" s="127">
         <f>IF(ISNUMBER($E$10),E141*$E$10*1.1,E141*$E$11*1.1)</f>
         <v>396.00000000000006</v>
       </c>
-      <c r="G141" s="160"/>
+      <c r="G141" s="128"/>
       <c r="H141" s="71" t="s">
         <v>20</v>
       </c>
@@ -24790,37 +24820,37 @@
     </row>
     <row r="142" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13"/>
-      <c r="C142" s="150" t="s">
+      <c r="C142" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="D142" s="151"/>
+      <c r="D142" s="158"/>
       <c r="E142" s="81">
         <v>2.5</v>
       </c>
-      <c r="F142" s="206">
+      <c r="F142" s="204">
         <f>IF(ISNUMBER($E$10),E142*$E$10*1.1,E142*$E$11*1.1)</f>
         <v>44</v>
       </c>
-      <c r="G142" s="207"/>
+      <c r="G142" s="205"/>
       <c r="H142" s="70" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
-      <c r="C143" s="103" t="s">
+      <c r="C143" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D143" s="104"/>
+      <c r="D143" s="186"/>
       <c r="E143" s="73">
         <f>SUM(E140:E142)</f>
         <v>45</v>
       </c>
-      <c r="F143" s="159">
+      <c r="F143" s="127">
         <f>+SUM(F141:G142)</f>
         <v>440.00000000000006</v>
       </c>
-      <c r="G143" s="160"/>
+      <c r="G143" s="128"/>
       <c r="H143" s="71" t="s">
         <v>20</v>
       </c>
@@ -24844,7 +24874,7 @@
       <c r="F145" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G145" s="102" t="str">
+      <c r="G145" s="129" t="str">
         <f>IF(J144&gt;0,CONCATENATE(J144," cycles"),"___cycles")</f>
         <v>___cycles</v>
       </c>
@@ -24854,62 +24884,62 @@
       <c r="F146" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="G146" s="102"/>
-      <c r="I146" s="181" t="s">
+      <c r="G146" s="129"/>
+      <c r="I146" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="J146" s="181"/>
-      <c r="K146" s="181" t="s">
+      <c r="J146" s="109"/>
+      <c r="K146" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="L146" s="181"/>
+      <c r="L146" s="109"/>
     </row>
     <row r="147" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="13"/>
       <c r="F147" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="I147" s="181" t="s">
+      <c r="I147" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="J147" s="181"/>
-      <c r="K147" s="180" t="str">
+      <c r="J147" s="109"/>
+      <c r="K147" s="120" t="str">
         <f>"9 - 11"</f>
         <v>9 - 11</v>
       </c>
-      <c r="L147" s="180"/>
+      <c r="L147" s="120"/>
     </row>
     <row r="148" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F148" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I148" s="181" t="s">
+      <c r="I148" s="109" t="s">
         <v>220</v>
       </c>
-      <c r="J148" s="181"/>
-      <c r="K148" s="180" t="str">
+      <c r="J148" s="109"/>
+      <c r="K148" s="120" t="str">
         <f>"11 - 13"</f>
         <v>11 - 13</v>
       </c>
-      <c r="L148" s="180"/>
+      <c r="L148" s="120"/>
     </row>
     <row r="149" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="13"/>
-      <c r="B149" s="182" t="s">
+      <c r="B149" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="C149" s="183"/>
-      <c r="D149" s="183"/>
-      <c r="E149" s="183"/>
-      <c r="F149" s="183"/>
-      <c r="G149" s="183"/>
-      <c r="H149" s="183"/>
-      <c r="I149" s="183"/>
-      <c r="J149" s="183"/>
-      <c r="K149" s="183"/>
-      <c r="L149" s="183"/>
-      <c r="M149" s="183"/>
-      <c r="N149" s="184"/>
+      <c r="C149" s="122"/>
+      <c r="D149" s="122"/>
+      <c r="E149" s="122"/>
+      <c r="F149" s="122"/>
+      <c r="G149" s="122"/>
+      <c r="H149" s="122"/>
+      <c r="I149" s="122"/>
+      <c r="J149" s="122"/>
+      <c r="K149" s="122"/>
+      <c r="L149" s="122"/>
+      <c r="M149" s="122"/>
+      <c r="N149" s="123"/>
     </row>
     <row r="150" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12"/>
@@ -24921,21 +24951,21 @@
     </row>
     <row r="151" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12"/>
-      <c r="B151" s="161" t="s">
+      <c r="B151" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="C151" s="162"/>
-      <c r="D151" s="162"/>
-      <c r="E151" s="162"/>
-      <c r="F151" s="162"/>
-      <c r="G151" s="162"/>
-      <c r="H151" s="162"/>
-      <c r="I151" s="162"/>
-      <c r="J151" s="162"/>
-      <c r="K151" s="162"/>
-      <c r="L151" s="162"/>
-      <c r="M151" s="162"/>
-      <c r="N151" s="163"/>
+      <c r="C151" s="125"/>
+      <c r="D151" s="125"/>
+      <c r="E151" s="125"/>
+      <c r="F151" s="125"/>
+      <c r="G151" s="125"/>
+      <c r="H151" s="125"/>
+      <c r="I151" s="125"/>
+      <c r="J151" s="125"/>
+      <c r="K151" s="125"/>
+      <c r="L151" s="125"/>
+      <c r="M151" s="125"/>
+      <c r="N151" s="126"/>
     </row>
     <row r="152" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="13"/>
@@ -25447,333 +25477,209 @@
         <v>224</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="27"/>
-      <c r="C165" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="D165" s="101"/>
-      <c r="E165" s="101"/>
-      <c r="F165" s="101"/>
-      <c r="G165" s="101"/>
-      <c r="H165" s="101"/>
-      <c r="I165" s="101"/>
-      <c r="J165" s="101"/>
-      <c r="K165" s="102" t="s">
-        <v>226</v>
-      </c>
-      <c r="L165" s="102"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="D165"/>
+      <c r="E165" s="269" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="166" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="27"/>
-      <c r="C166" s="101" t="s">
-        <v>227</v>
-      </c>
-      <c r="D166" s="101"/>
-      <c r="E166" s="101"/>
-      <c r="F166" s="101"/>
-      <c r="G166" s="101"/>
-      <c r="H166" s="101"/>
-      <c r="I166" s="101"/>
-      <c r="J166" s="101"/>
-      <c r="K166" s="102" t="s">
-        <v>228</v>
-      </c>
-      <c r="L166" s="102"/>
+      <c r="C166" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="D166" s="184"/>
+      <c r="E166" s="184"/>
+      <c r="F166" s="184"/>
+      <c r="G166" s="184"/>
+      <c r="H166" s="184"/>
+      <c r="I166" s="184"/>
+      <c r="J166" s="184"/>
+      <c r="K166" s="129" t="s">
+        <v>226</v>
+      </c>
+      <c r="L166" s="129"/>
     </row>
     <row r="167" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="27"/>
-      <c r="C167" s="101" t="s">
-        <v>229</v>
-      </c>
-      <c r="D167" s="101"/>
-      <c r="E167" s="101"/>
-      <c r="F167" s="101"/>
-      <c r="G167" s="101"/>
-      <c r="H167" s="101"/>
-      <c r="I167" s="101"/>
-      <c r="J167" s="101"/>
-      <c r="K167" s="102" t="s">
-        <v>230</v>
-      </c>
-      <c r="L167" s="102"/>
+      <c r="C167" s="184" t="s">
+        <v>227</v>
+      </c>
+      <c r="D167" s="184"/>
+      <c r="E167" s="184"/>
+      <c r="F167" s="184"/>
+      <c r="G167" s="184"/>
+      <c r="H167" s="184"/>
+      <c r="I167" s="184"/>
+      <c r="J167" s="184"/>
+      <c r="K167" s="129" t="s">
+        <v>228</v>
+      </c>
+      <c r="L167" s="129"/>
     </row>
     <row r="168" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27"/>
-      <c r="C168" s="101" t="s">
-        <v>231</v>
-      </c>
-      <c r="D168" s="101"/>
-      <c r="E168" s="101"/>
-      <c r="F168" s="101"/>
-      <c r="G168" s="101"/>
-      <c r="H168" s="101"/>
-      <c r="I168" s="101"/>
-      <c r="J168" s="101"/>
-      <c r="K168" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="L168" s="102"/>
+      <c r="C168" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="D168" s="184"/>
+      <c r="E168" s="184"/>
+      <c r="F168" s="184"/>
+      <c r="G168" s="184"/>
+      <c r="H168" s="184"/>
+      <c r="I168" s="184"/>
+      <c r="J168" s="184"/>
+      <c r="K168" s="129" t="s">
+        <v>230</v>
+      </c>
+      <c r="L168" s="129"/>
     </row>
     <row r="169" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="27"/>
-      <c r="C169" s="82"/>
-      <c r="D169" s="82"/>
-      <c r="E169" s="82"/>
-      <c r="F169" s="82"/>
-      <c r="G169" s="82"/>
-      <c r="H169" s="82"/>
-      <c r="I169" s="82"/>
-      <c r="J169" s="82"/>
-      <c r="K169" s="30"/>
-      <c r="L169" s="30"/>
+      <c r="C169" s="184" t="s">
+        <v>231</v>
+      </c>
+      <c r="D169" s="184"/>
+      <c r="E169" s="184"/>
+      <c r="F169" s="184"/>
+      <c r="G169" s="184"/>
+      <c r="H169" s="184"/>
+      <c r="I169" s="184"/>
+      <c r="J169" s="184"/>
+      <c r="K169" s="129" t="s">
+        <v>232</v>
+      </c>
+      <c r="L169" s="129"/>
     </row>
     <row r="170" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="27"/>
-      <c r="B170" s="63"/>
-      <c r="C170" s="4"/>
+      <c r="C170" s="82"/>
+      <c r="D170" s="82"/>
+      <c r="E170" s="82"/>
+      <c r="F170" s="82"/>
+      <c r="G170" s="82"/>
+      <c r="H170" s="82"/>
+      <c r="I170" s="82"/>
+      <c r="J170" s="82"/>
+      <c r="K170" s="30"/>
+      <c r="L170" s="30"/>
     </row>
     <row r="171" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C171" s="241" t="s">
+      <c r="A171" s="27"/>
+      <c r="B171" s="63"/>
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="D171" s="242"/>
-      <c r="E171" s="243"/>
-      <c r="F171" s="185" t="s">
+      <c r="D172" s="200"/>
+      <c r="E172" s="201"/>
+      <c r="F172" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="G171" s="186"/>
-      <c r="H171" s="186"/>
-      <c r="I171" s="187"/>
-    </row>
-    <row r="172" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C172" s="185" t="s">
+      <c r="G172" s="102"/>
+      <c r="H172" s="102"/>
+      <c r="I172" s="103"/>
+    </row>
+    <row r="173" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="D172" s="186"/>
-      <c r="E172" s="187"/>
-      <c r="F172" s="185" t="s">
+      <c r="D173" s="102"/>
+      <c r="E173" s="103"/>
+      <c r="F173" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="G172" s="186"/>
-      <c r="H172" s="186"/>
-      <c r="I172" s="187"/>
-    </row>
-    <row r="173" spans="1:14" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="185" t="s">
+      <c r="G173" s="102"/>
+      <c r="H173" s="102"/>
+      <c r="I173" s="103"/>
+    </row>
+    <row r="174" spans="1:14" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C174" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D173" s="186"/>
-      <c r="E173" s="187"/>
-      <c r="F173" s="185" t="s">
+      <c r="D174" s="102"/>
+      <c r="E174" s="103"/>
+      <c r="F174" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="G173" s="186"/>
-      <c r="H173" s="186"/>
-      <c r="I173" s="187"/>
-    </row>
-    <row r="174" spans="1:14" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C174" s="185" t="s">
+      <c r="G174" s="102"/>
+      <c r="H174" s="102"/>
+      <c r="I174" s="103"/>
+    </row>
+    <row r="175" spans="1:14" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C175" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="D174" s="186"/>
-      <c r="E174" s="187"/>
-      <c r="F174" s="185" t="s">
+      <c r="D175" s="102"/>
+      <c r="E175" s="103"/>
+      <c r="F175" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="G174" s="186"/>
-      <c r="H174" s="186"/>
-      <c r="I174" s="187"/>
-    </row>
-    <row r="175" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C175" s="185" t="s">
+      <c r="G175" s="102"/>
+      <c r="H175" s="102"/>
+      <c r="I175" s="103"/>
+    </row>
+    <row r="176" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D175" s="186"/>
-      <c r="E175" s="187"/>
-      <c r="F175" s="185" t="s">
+      <c r="D176" s="102"/>
+      <c r="E176" s="103"/>
+      <c r="F176" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="G175" s="186"/>
-      <c r="H175" s="186"/>
-      <c r="I175" s="187"/>
-    </row>
-    <row r="176" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C176" s="185" t="s">
+      <c r="G176" s="102"/>
+      <c r="H176" s="102"/>
+      <c r="I176" s="103"/>
+    </row>
+    <row r="177" spans="3:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="D176" s="186"/>
-      <c r="E176" s="187"/>
-      <c r="F176" s="185" t="s">
+      <c r="D177" s="102"/>
+      <c r="E177" s="103"/>
+      <c r="F177" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="G176" s="186"/>
-      <c r="H176" s="186"/>
-      <c r="I176" s="187"/>
-    </row>
-    <row r="177" spans="3:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C177" s="185" t="s">
+      <c r="G177" s="102"/>
+      <c r="H177" s="102"/>
+      <c r="I177" s="103"/>
+    </row>
+    <row r="178" spans="3:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C178" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="D177" s="186"/>
-      <c r="E177" s="187"/>
-      <c r="F177" s="185">
+      <c r="D178" s="102"/>
+      <c r="E178" s="103"/>
+      <c r="F178" s="101">
         <v>20241219</v>
       </c>
-      <c r="G177" s="186"/>
-      <c r="H177" s="186"/>
-      <c r="I177" s="187"/>
-    </row>
-    <row r="178" spans="3:9" s="5" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C178" s="185" t="s">
+      <c r="G178" s="102"/>
+      <c r="H178" s="102"/>
+      <c r="I178" s="103"/>
+    </row>
+    <row r="179" spans="3:9" s="5" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="D178" s="186"/>
-      <c r="E178" s="187"/>
-      <c r="F178" s="244">
+      <c r="D179" s="102"/>
+      <c r="E179" s="103"/>
+      <c r="F179" s="194">
         <v>20241021</v>
       </c>
-      <c r="G178" s="245"/>
-      <c r="H178" s="245"/>
-      <c r="I178" s="246"/>
+      <c r="G179" s="195"/>
+      <c r="H179" s="195"/>
+      <c r="I179" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="C178:E178"/>
-    <mergeCell ref="F178:I178"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="C175:E175"/>
-    <mergeCell ref="F175:I175"/>
-    <mergeCell ref="C176:E176"/>
-    <mergeCell ref="F176:I176"/>
-    <mergeCell ref="C177:E177"/>
-    <mergeCell ref="F177:I177"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="F172:I172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="F173:I173"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="F174:I174"/>
-    <mergeCell ref="C167:J167"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="I146:J146"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="B136:N136"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="C168:J168"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="C171:E171"/>
-    <mergeCell ref="F171:I171"/>
-    <mergeCell ref="B149:N149"/>
-    <mergeCell ref="B151:N151"/>
-    <mergeCell ref="C165:J165"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="C166:J166"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="I147:J147"/>
-    <mergeCell ref="K147:L147"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="B113:N113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="B94:N94"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="B77:N77"/>
-    <mergeCell ref="B83:N83"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B57:N57"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B47:N47"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="B41:N41"/>
-    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="A6:D6"/>
@@ -25789,6 +25695,141 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B47:N47"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="B41:N41"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B57:N57"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="B77:N77"/>
+    <mergeCell ref="B83:N83"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="B94:N94"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="B113:N113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="I147:J147"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="C169:J169"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="F172:I172"/>
+    <mergeCell ref="B149:N149"/>
+    <mergeCell ref="B151:N151"/>
+    <mergeCell ref="C166:J166"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="C167:J167"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="F179:I179"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="F176:I176"/>
+    <mergeCell ref="C177:E177"/>
+    <mergeCell ref="F177:I177"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="F178:I178"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="F173:I173"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="F174:I174"/>
+    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="F175:I175"/>
+    <mergeCell ref="C168:J168"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="I146:J146"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="B136:N136"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="F140:G140"/>
   </mergeCells>
   <conditionalFormatting sqref="C24:N31">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -26736,10 +26777,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730DFE23-8009-4068-BB1B-4BFE62C3E948}">
-  <dimension ref="A1:O189"/>
+  <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26761,38 +26802,38 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="171" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="199"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="243"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="199"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="243"/>
       <c r="J3" s="30"/>
       <c r="K3" s="35" t="s">
         <v>18</v>
@@ -26802,83 +26843,83 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="238" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="199"/>
-      <c r="J4" s="128" t="s">
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="243"/>
+      <c r="J4" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="129"/>
+      <c r="K4" s="177"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="238" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="199"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="243"/>
     </row>
     <row r="6" spans="1:15" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="238" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="199"/>
+      <c r="B6" s="239"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="243"/>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="202"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="246"/>
     </row>
     <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="199"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="243"/>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="208"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="183"/>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="32"/>
       <c r="F10" s="10" t="b">
         <f>MOD($E$10,8)=0</f>
@@ -26895,12 +26936,12 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="32"/>
       <c r="F11" s="10" t="b">
         <f>MOD($E$11,12)=0</f>
@@ -26917,21 +26958,21 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="141"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="164"/>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
@@ -28380,21 +28421,21 @@
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="111"/>
-      <c r="M41" s="111"/>
-      <c r="N41" s="112"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="166"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="166"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="166"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="166"/>
+      <c r="N41" s="167"/>
       <c r="O41" s="19"/>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -28417,11 +28458,11 @@
       <c r="E43" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="212" t="str">
+      <c r="F43" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G43" s="212"/>
+      <c r="G43" s="206"/>
       <c r="H43" s="26"/>
       <c r="O43" s="19"/>
     </row>
@@ -28430,35 +28471,35 @@
       <c r="B44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="215" t="s">
+      <c r="C44" s="217" t="s">
         <v>239</v>
       </c>
-      <c r="D44" s="216"/>
+      <c r="D44" s="218"/>
       <c r="E44" s="84">
         <v>11</v>
       </c>
-      <c r="F44" s="115" t="s">
+      <c r="F44" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="116"/>
+      <c r="G44" s="118"/>
       <c r="H44" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="C45" s="217" t="s">
+      <c r="C45" s="215" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="218"/>
+      <c r="D45" s="216"/>
       <c r="E45" s="69">
         <v>2</v>
       </c>
-      <c r="F45" s="223">
+      <c r="F45" s="231">
         <f>IF(ISNUMBER($E$10),E45*$E$10*1.1,E45*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G45" s="223"/>
+      <c r="G45" s="231"/>
       <c r="H45" s="24" t="s">
         <v>20</v>
       </c>
@@ -28466,18 +28507,18 @@
     <row r="46" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="215" t="s">
+      <c r="C46" s="217" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="216"/>
+      <c r="D46" s="218"/>
       <c r="E46" s="20">
         <v>2</v>
       </c>
-      <c r="F46" s="206">
+      <c r="F46" s="204">
         <f>IF(ISNUMBER($E$10),E46*$E$10*1.1,E46*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="207"/>
+      <c r="G46" s="205"/>
       <c r="H46" s="23" t="s">
         <v>20</v>
       </c>
@@ -28485,19 +28526,19 @@
     <row r="47" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="239" t="s">
+      <c r="C47" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="240"/>
+      <c r="D47" s="203"/>
       <c r="E47" s="37">
         <f>SUM(E44:E46)</f>
         <v>15</v>
       </c>
-      <c r="F47" s="159">
+      <c r="F47" s="127">
         <f t="shared" ref="F47" si="0">E47*$E$11*1.1</f>
         <v>0</v>
       </c>
-      <c r="G47" s="160"/>
+      <c r="G47" s="128"/>
       <c r="H47" s="24" t="s">
         <v>20</v>
       </c>
@@ -28545,21 +28586,21 @@
     </row>
     <row r="51" spans="1:15" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
-      <c r="B51" s="152" t="s">
+      <c r="B51" s="159" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
-      <c r="K51" s="153"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="153"/>
-      <c r="N51" s="154"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="160"/>
+      <c r="L51" s="160"/>
+      <c r="M51" s="160"/>
+      <c r="N51" s="161"/>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
@@ -28578,11 +28619,11 @@
       <c r="E53" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="212" t="str">
+      <c r="F53" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G53" s="212"/>
+      <c r="G53" s="206"/>
       <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -28590,17 +28631,17 @@
       <c r="B54" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="215" t="s">
+      <c r="C54" s="217" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="216"/>
+      <c r="D54" s="218"/>
       <c r="E54" s="72">
         <v>15</v>
       </c>
-      <c r="F54" s="115" t="s">
+      <c r="F54" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="116"/>
+      <c r="G54" s="118"/>
       <c r="H54" s="23" t="s">
         <v>20</v>
       </c>
@@ -28610,18 +28651,18 @@
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
-      <c r="C55" s="247" t="s">
+      <c r="C55" s="265" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="248"/>
+      <c r="D55" s="266"/>
       <c r="E55" s="73">
         <v>2</v>
       </c>
-      <c r="F55" s="223">
+      <c r="F55" s="231">
         <f>IF(ISNUMBER($E$10),E55*$E$10*1.1,E55*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G55" s="223"/>
+      <c r="G55" s="231"/>
       <c r="H55" s="24" t="s">
         <v>20</v>
       </c>
@@ -28629,18 +28670,18 @@
     </row>
     <row r="56" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="C56" s="249" t="s">
+      <c r="C56" s="267" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="250"/>
+      <c r="D56" s="268"/>
       <c r="E56" s="54">
         <v>2</v>
       </c>
-      <c r="F56" s="223">
+      <c r="F56" s="231">
         <f>IF(ISNUMBER($E$10),E56*$E$10*1.1,E56*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="223"/>
+      <c r="G56" s="231"/>
       <c r="H56" s="24" t="s">
         <v>20</v>
       </c>
@@ -28648,37 +28689,37 @@
     </row>
     <row r="57" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
-      <c r="C57" s="219" t="s">
+      <c r="C57" s="197" t="s">
         <v>154</v>
       </c>
-      <c r="D57" s="220"/>
+      <c r="D57" s="198"/>
       <c r="E57" s="54">
         <v>1</v>
       </c>
-      <c r="F57" s="206">
+      <c r="F57" s="204">
         <f>IF(ISNUMBER($E$10),E57*$E$10*1.1,E57*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="207"/>
+      <c r="G57" s="205"/>
       <c r="H57" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
-      <c r="C58" s="103" t="s">
+      <c r="C58" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="104"/>
+      <c r="D58" s="186"/>
       <c r="E58" s="74">
         <f>SUM(E54:E57)</f>
         <v>20</v>
       </c>
-      <c r="F58" s="159">
+      <c r="F58" s="127">
         <f t="shared" ref="F58" si="1">E58*$E$11*1.1</f>
         <v>0</v>
       </c>
-      <c r="G58" s="160"/>
+      <c r="G58" s="128"/>
       <c r="H58" s="24" t="s">
         <v>20</v>
       </c>
@@ -28716,21 +28757,21 @@
     </row>
     <row r="61" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
-      <c r="B61" s="161" t="s">
+      <c r="B61" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="C61" s="162"/>
-      <c r="D61" s="162"/>
-      <c r="E61" s="162"/>
-      <c r="F61" s="162"/>
-      <c r="G61" s="162"/>
-      <c r="H61" s="162"/>
-      <c r="I61" s="162"/>
-      <c r="J61" s="162"/>
-      <c r="K61" s="162"/>
-      <c r="L61" s="162"/>
-      <c r="M61" s="162"/>
-      <c r="N61" s="163"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="125"/>
+      <c r="K61" s="125"/>
+      <c r="L61" s="125"/>
+      <c r="M61" s="125"/>
+      <c r="N61" s="126"/>
     </row>
     <row r="62" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
@@ -28759,11 +28800,11 @@
       <c r="E63" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="212" t="str">
+      <c r="F63" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G63" s="212"/>
+      <c r="G63" s="206"/>
       <c r="H63" s="26"/>
       <c r="K63" s="41"/>
       <c r="L63" s="41"/>
@@ -28776,17 +28817,17 @@
       <c r="B64" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="215" t="s">
+      <c r="C64" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="D64" s="216"/>
+      <c r="D64" s="218"/>
       <c r="E64" s="72">
         <v>20</v>
       </c>
-      <c r="F64" s="115" t="s">
+      <c r="F64" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="116"/>
+      <c r="G64" s="118"/>
       <c r="H64" s="23" t="s">
         <v>20</v>
       </c>
@@ -28800,18 +28841,18 @@
     </row>
     <row r="65" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
-      <c r="C65" s="217" t="s">
+      <c r="C65" s="215" t="s">
         <v>174</v>
       </c>
-      <c r="D65" s="218"/>
+      <c r="D65" s="216"/>
       <c r="E65" s="73">
         <v>5</v>
       </c>
-      <c r="F65" s="223">
+      <c r="F65" s="231">
         <f>IF(ISNUMBER($E$10),E65*$E$10*1.1,E65*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="223"/>
+      <c r="G65" s="231"/>
       <c r="H65" s="24" t="s">
         <v>20</v>
       </c>
@@ -28823,18 +28864,18 @@
     </row>
     <row r="66" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
-      <c r="C66" s="210" t="s">
+      <c r="C66" s="226" t="s">
         <v>175</v>
       </c>
-      <c r="D66" s="211"/>
+      <c r="D66" s="227"/>
       <c r="E66" s="54">
         <v>2.5</v>
       </c>
-      <c r="F66" s="223">
+      <c r="F66" s="231">
         <f>IF(ISNUMBER($E$10),E66*$E$10*1.1,E66*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="223"/>
+      <c r="G66" s="231"/>
       <c r="H66" s="24" t="s">
         <v>20</v>
       </c>
@@ -28845,37 +28886,37 @@
     </row>
     <row r="67" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
-      <c r="C67" s="215" t="s">
+      <c r="C67" s="217" t="s">
         <v>154</v>
       </c>
-      <c r="D67" s="216"/>
+      <c r="D67" s="218"/>
       <c r="E67" s="54">
         <v>22.5</v>
       </c>
-      <c r="F67" s="251">
+      <c r="F67" s="257">
         <f>IF(ISNUMBER($E$10),E67*$E$10*1.1,E67*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G67" s="251"/>
+      <c r="G67" s="257"/>
       <c r="H67" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
-      <c r="C68" s="239" t="s">
+      <c r="C68" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="D68" s="240"/>
+      <c r="D68" s="203"/>
       <c r="E68" s="74">
         <f>SUM(E64:E67)</f>
         <v>50</v>
       </c>
-      <c r="F68" s="159">
+      <c r="F68" s="127">
         <f>SUM(F65:G67)</f>
         <v>0</v>
       </c>
-      <c r="G68" s="160"/>
+      <c r="G68" s="128"/>
       <c r="H68" s="24" t="s">
         <v>20</v>
       </c>
@@ -28908,21 +28949,21 @@
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="155" t="s">
+      <c r="B71" s="148" t="s">
         <v>245</v>
       </c>
-      <c r="C71" s="156"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="156"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="156"/>
-      <c r="I71" s="156"/>
-      <c r="J71" s="156"/>
-      <c r="K71" s="156"/>
-      <c r="L71" s="156"/>
-      <c r="M71" s="156"/>
-      <c r="N71" s="157"/>
+      <c r="C71" s="149"/>
+      <c r="D71" s="149"/>
+      <c r="E71" s="149"/>
+      <c r="F71" s="149"/>
+      <c r="G71" s="149"/>
+      <c r="H71" s="149"/>
+      <c r="I71" s="149"/>
+      <c r="J71" s="149"/>
+      <c r="K71" s="149"/>
+      <c r="L71" s="149"/>
+      <c r="M71" s="149"/>
+      <c r="N71" s="150"/>
       <c r="O71"/>
     </row>
     <row r="72" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29025,21 +29066,21 @@
     </row>
     <row r="77" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="167" t="s">
+      <c r="B77" s="144" t="s">
         <v>292</v>
       </c>
-      <c r="C77" s="168"/>
-      <c r="D77" s="168"/>
-      <c r="E77" s="168"/>
-      <c r="F77" s="168"/>
-      <c r="G77" s="168"/>
-      <c r="H77" s="168"/>
-      <c r="I77" s="168"/>
-      <c r="J77" s="168"/>
-      <c r="K77" s="168"/>
-      <c r="L77" s="168"/>
-      <c r="M77" s="168"/>
-      <c r="N77" s="169"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
+      <c r="E77" s="145"/>
+      <c r="F77" s="145"/>
+      <c r="G77" s="145"/>
+      <c r="H77" s="145"/>
+      <c r="I77" s="145"/>
+      <c r="J77" s="145"/>
+      <c r="K77" s="145"/>
+      <c r="L77" s="145"/>
+      <c r="M77" s="145"/>
+      <c r="N77" s="146"/>
     </row>
     <row r="78" spans="1:15" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12"/>
@@ -29061,11 +29102,11 @@
       <c r="E79" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F79" s="212" t="str">
+      <c r="F79" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G79" s="212"/>
+      <c r="G79" s="206"/>
       <c r="H79" s="26"/>
     </row>
     <row r="80" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29073,17 +29114,17 @@
       <c r="B80" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="215" t="s">
+      <c r="C80" s="217" t="s">
         <v>246</v>
       </c>
-      <c r="D80" s="216"/>
+      <c r="D80" s="218"/>
       <c r="E80" s="72">
         <v>5</v>
       </c>
-      <c r="F80" s="115" t="s">
+      <c r="F80" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="116"/>
+      <c r="G80" s="118"/>
       <c r="H80" s="23" t="s">
         <v>20</v>
       </c>
@@ -29092,18 +29133,18 @@
     </row>
     <row r="81" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
-      <c r="C81" s="217" t="s">
+      <c r="C81" s="215" t="s">
         <v>247</v>
       </c>
-      <c r="D81" s="218"/>
+      <c r="D81" s="216"/>
       <c r="E81" s="73">
         <v>4</v>
       </c>
-      <c r="F81" s="255">
+      <c r="F81" s="263">
         <f>IF(ISNUMBER($E$10),E81*$E$10*1.1,E81*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G81" s="256"/>
+      <c r="G81" s="264"/>
       <c r="H81" s="24" t="s">
         <v>20</v>
       </c>
@@ -29113,18 +29154,18 @@
     <row r="82" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="215" t="s">
+      <c r="C82" s="217" t="s">
         <v>248</v>
       </c>
-      <c r="D82" s="216"/>
+      <c r="D82" s="218"/>
       <c r="E82" s="77">
         <v>1</v>
       </c>
-      <c r="F82" s="251">
+      <c r="F82" s="257">
         <f>IF(ISNUMBER($E$10),E82*$E$10*1.1,E82*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G82" s="251"/>
+      <c r="G82" s="257"/>
       <c r="H82" s="23" t="s">
         <v>20</v>
       </c>
@@ -29133,19 +29174,19 @@
     <row r="83" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="239" t="s">
+      <c r="C83" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="240"/>
+      <c r="D83" s="203"/>
       <c r="E83" s="74">
         <f>SUM(E79:E82)</f>
         <v>10</v>
       </c>
-      <c r="F83" s="159">
+      <c r="F83" s="127">
         <f>SUM(F80:G82)</f>
         <v>0</v>
       </c>
-      <c r="G83" s="160"/>
+      <c r="G83" s="128"/>
       <c r="H83" s="24" t="s">
         <v>20</v>
       </c>
@@ -29166,10 +29207,10 @@
       <c r="E84" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="F84" s="102" t="s">
+      <c r="F84" s="129" t="s">
         <v>250</v>
       </c>
-      <c r="G84" s="102"/>
+      <c r="G84" s="129"/>
       <c r="H84" s="26"/>
       <c r="O84"/>
     </row>
@@ -29183,10 +29224,10 @@
       <c r="E85" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="F85" s="252" t="s">
+      <c r="F85" s="260" t="s">
         <v>253</v>
       </c>
-      <c r="G85" s="252"/>
+      <c r="G85" s="260"/>
       <c r="H85" s="26"/>
       <c r="I85" s="4" t="s">
         <v>183</v>
@@ -29204,38 +29245,38 @@
         <f>"2-6"</f>
         <v>2-6</v>
       </c>
-      <c r="F86" s="253" t="s">
+      <c r="F86" s="261" t="s">
         <v>255</v>
       </c>
-      <c r="G86" s="253"/>
+      <c r="G86" s="261"/>
       <c r="H86" s="26"/>
-      <c r="I86" s="254" t="s">
+      <c r="I86" s="262" t="s">
         <v>256</v>
       </c>
-      <c r="J86" s="254"/>
-      <c r="K86" s="254"/>
-      <c r="L86" s="254"/>
-      <c r="M86" s="254"/>
-      <c r="N86" s="254"/>
+      <c r="J86" s="262"/>
+      <c r="K86" s="262"/>
+      <c r="L86" s="262"/>
+      <c r="M86" s="262"/>
+      <c r="N86" s="262"/>
       <c r="O86"/>
     </row>
     <row r="87" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
-      <c r="B87" s="107" t="s">
+      <c r="B87" s="187" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="108"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="108"/>
-      <c r="F87" s="108"/>
-      <c r="G87" s="108"/>
-      <c r="H87" s="108"/>
-      <c r="I87" s="108"/>
-      <c r="J87" s="108"/>
-      <c r="K87" s="108"/>
-      <c r="L87" s="108"/>
-      <c r="M87" s="108"/>
-      <c r="N87" s="109"/>
+      <c r="C87" s="188"/>
+      <c r="D87" s="188"/>
+      <c r="E87" s="188"/>
+      <c r="F87" s="188"/>
+      <c r="G87" s="188"/>
+      <c r="H87" s="188"/>
+      <c r="I87" s="188"/>
+      <c r="J87" s="188"/>
+      <c r="K87" s="188"/>
+      <c r="L87" s="188"/>
+      <c r="M87" s="188"/>
+      <c r="N87" s="189"/>
       <c r="O87"/>
     </row>
     <row r="88" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29259,11 +29300,11 @@
       <c r="E89" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F89" s="212" t="str">
+      <c r="F89" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G89" s="212"/>
+      <c r="G89" s="206"/>
       <c r="H89" s="26"/>
       <c r="O89"/>
     </row>
@@ -29272,17 +29313,17 @@
       <c r="B90" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="224" t="s">
+      <c r="C90" s="219" t="s">
         <v>190</v>
       </c>
-      <c r="D90" s="225"/>
+      <c r="D90" s="220"/>
       <c r="E90" s="72">
         <v>10</v>
       </c>
-      <c r="F90" s="221" t="s">
+      <c r="F90" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="G90" s="222"/>
+      <c r="G90" s="229"/>
       <c r="H90" s="23" t="s">
         <v>20</v>
       </c>
@@ -29291,18 +29332,18 @@
     </row>
     <row r="91" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
-      <c r="C91" s="257" t="s">
+      <c r="C91" s="258" t="s">
         <v>154</v>
       </c>
-      <c r="D91" s="258"/>
+      <c r="D91" s="259"/>
       <c r="E91" s="73">
         <v>8</v>
       </c>
-      <c r="F91" s="223">
+      <c r="F91" s="231">
         <f>IF(ISNUMBER($E$10),E91*$E$10*1.1,E91*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G91" s="223"/>
+      <c r="G91" s="231"/>
       <c r="H91" s="24" t="s">
         <v>20</v>
       </c>
@@ -29312,18 +29353,18 @@
     <row r="92" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="224" t="s">
+      <c r="C92" s="219" t="s">
         <v>257</v>
       </c>
-      <c r="D92" s="225"/>
+      <c r="D92" s="220"/>
       <c r="E92" s="77">
         <v>2</v>
       </c>
-      <c r="F92" s="221">
+      <c r="F92" s="228">
         <f>IF(ISNUMBER($E$10),E92*$E$10*1.1,E92*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G92" s="222"/>
+      <c r="G92" s="229"/>
       <c r="H92" s="23" t="s">
         <v>20</v>
       </c>
@@ -29332,19 +29373,19 @@
     <row r="93" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="239" t="s">
+      <c r="C93" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="D93" s="240"/>
+      <c r="D93" s="203"/>
       <c r="E93" s="74">
         <f>SUM(E89:E92)</f>
         <v>20</v>
       </c>
-      <c r="F93" s="159">
+      <c r="F93" s="127">
         <f>SUM(F90:G92)</f>
         <v>0</v>
       </c>
-      <c r="G93" s="160"/>
+      <c r="G93" s="128"/>
       <c r="H93" s="24" t="s">
         <v>20</v>
       </c>
@@ -29435,21 +29476,21 @@
     </row>
     <row r="98" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98"/>
-      <c r="B98" s="226" t="s">
+      <c r="B98" s="221" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="227"/>
-      <c r="D98" s="227"/>
-      <c r="E98" s="227"/>
-      <c r="F98" s="227"/>
-      <c r="G98" s="227"/>
-      <c r="H98" s="227"/>
-      <c r="I98" s="227"/>
-      <c r="J98" s="227"/>
-      <c r="K98" s="227"/>
-      <c r="L98" s="227"/>
-      <c r="M98" s="227"/>
-      <c r="N98" s="228"/>
+      <c r="C98" s="222"/>
+      <c r="D98" s="222"/>
+      <c r="E98" s="222"/>
+      <c r="F98" s="222"/>
+      <c r="G98" s="222"/>
+      <c r="H98" s="222"/>
+      <c r="I98" s="222"/>
+      <c r="J98" s="222"/>
+      <c r="K98" s="222"/>
+      <c r="L98" s="222"/>
+      <c r="M98" s="222"/>
+      <c r="N98" s="223"/>
       <c r="O98"/>
     </row>
     <row r="99" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29475,11 +29516,11 @@
       <c r="E100" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F100" s="212" t="str">
+      <c r="F100" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G100" s="212"/>
+      <c r="G100" s="206"/>
       <c r="H100" s="26"/>
       <c r="L100"/>
       <c r="M100"/>
@@ -29491,17 +29532,17 @@
       <c r="B101" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C101" s="224" t="s">
+      <c r="C101" s="219" t="s">
         <v>198</v>
       </c>
-      <c r="D101" s="225"/>
+      <c r="D101" s="220"/>
       <c r="E101" s="72">
         <v>20</v>
       </c>
-      <c r="F101" s="115" t="s">
+      <c r="F101" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="116"/>
+      <c r="G101" s="118"/>
       <c r="H101" s="23" t="s">
         <v>20</v>
       </c>
@@ -29512,18 +29553,18 @@
     <row r="102" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="217" t="s">
+      <c r="C102" s="215" t="s">
         <v>260</v>
       </c>
-      <c r="D102" s="218"/>
+      <c r="D102" s="216"/>
       <c r="E102" s="73">
         <v>8</v>
       </c>
-      <c r="F102" s="223">
+      <c r="F102" s="231">
         <f>IF(ISNUMBER($E$10),E102*$E$10*1.1,E102*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G102" s="223"/>
+      <c r="G102" s="231"/>
       <c r="H102" s="24" t="s">
         <v>20</v>
       </c>
@@ -29533,18 +29574,18 @@
     </row>
     <row r="103" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
-      <c r="C103" s="217" t="s">
+      <c r="C103" s="215" t="s">
         <v>261</v>
       </c>
-      <c r="D103" s="218"/>
+      <c r="D103" s="216"/>
       <c r="E103" s="73">
         <v>4</v>
       </c>
-      <c r="F103" s="223">
+      <c r="F103" s="231">
         <f>IF(ISNUMBER($E$10),E103*$E$10*1.1,E103*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G103" s="223"/>
+      <c r="G103" s="231"/>
       <c r="H103" s="24" t="s">
         <v>20</v>
       </c>
@@ -29556,18 +29597,18 @@
     <row r="104" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="219" t="s">
+      <c r="C104" s="197" t="s">
         <v>77</v>
       </c>
-      <c r="D104" s="220"/>
+      <c r="D104" s="198"/>
       <c r="E104" s="77">
         <v>48</v>
       </c>
-      <c r="F104" s="251">
+      <c r="F104" s="257">
         <f>IF(ISNUMBER($E$10),E104*$E$10*1.1,E104*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G104" s="251"/>
+      <c r="G104" s="257"/>
       <c r="H104" s="23" t="s">
         <v>20</v>
       </c>
@@ -29579,19 +29620,19 @@
     <row r="105" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="239" t="s">
+      <c r="C105" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="D105" s="240"/>
+      <c r="D105" s="203"/>
       <c r="E105" s="74">
         <f>SUM(E101:E104)</f>
         <v>80</v>
       </c>
-      <c r="F105" s="159">
+      <c r="F105" s="127">
         <f>SUM(F102:G104)</f>
         <v>0</v>
       </c>
-      <c r="G105" s="160"/>
+      <c r="G105" s="128"/>
       <c r="H105" s="24" t="s">
         <v>20</v>
       </c>
@@ -29625,21 +29666,21 @@
     </row>
     <row r="107" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
-      <c r="B107" s="155" t="s">
+      <c r="B107" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="C107" s="156"/>
-      <c r="D107" s="156"/>
-      <c r="E107" s="156"/>
-      <c r="F107" s="156"/>
-      <c r="G107" s="156"/>
-      <c r="H107" s="156"/>
-      <c r="I107" s="156"/>
-      <c r="J107" s="156"/>
-      <c r="K107" s="156"/>
-      <c r="L107" s="156"/>
-      <c r="M107" s="156"/>
-      <c r="N107" s="157"/>
+      <c r="C107" s="149"/>
+      <c r="D107" s="149"/>
+      <c r="E107" s="149"/>
+      <c r="F107" s="149"/>
+      <c r="G107" s="149"/>
+      <c r="H107" s="149"/>
+      <c r="I107" s="149"/>
+      <c r="J107" s="149"/>
+      <c r="K107" s="149"/>
+      <c r="L107" s="149"/>
+      <c r="M107" s="149"/>
+      <c r="N107" s="150"/>
       <c r="O107"/>
     </row>
     <row r="108" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29662,21 +29703,21 @@
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
-      <c r="B109" s="110" t="s">
+      <c r="B109" s="165" t="s">
         <v>203</v>
       </c>
-      <c r="C109" s="111"/>
-      <c r="D109" s="111"/>
-      <c r="E109" s="111"/>
-      <c r="F109" s="111"/>
-      <c r="G109" s="111"/>
-      <c r="H109" s="111"/>
-      <c r="I109" s="111"/>
-      <c r="J109" s="111"/>
-      <c r="K109" s="111"/>
-      <c r="L109" s="111"/>
-      <c r="M109" s="111"/>
-      <c r="N109" s="112"/>
+      <c r="C109" s="166"/>
+      <c r="D109" s="166"/>
+      <c r="E109" s="166"/>
+      <c r="F109" s="166"/>
+      <c r="G109" s="166"/>
+      <c r="H109" s="166"/>
+      <c r="I109" s="166"/>
+      <c r="J109" s="166"/>
+      <c r="K109" s="166"/>
+      <c r="L109" s="166"/>
+      <c r="M109" s="166"/>
+      <c r="N109" s="167"/>
     </row>
     <row r="110" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12"/>
@@ -29698,11 +29739,11 @@
       <c r="E111" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F111" s="212" t="str">
+      <c r="F111" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G111" s="212"/>
+      <c r="G111" s="206"/>
       <c r="H111" s="26"/>
     </row>
     <row r="112" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29710,17 +29751,17 @@
       <c r="B112" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C112" s="224" t="s">
+      <c r="C112" s="219" t="s">
         <v>204</v>
       </c>
-      <c r="D112" s="225"/>
+      <c r="D112" s="220"/>
       <c r="E112" s="72">
         <v>50</v>
       </c>
-      <c r="F112" s="251" t="s">
+      <c r="F112" s="257" t="s">
         <v>42</v>
       </c>
-      <c r="G112" s="251"/>
+      <c r="G112" s="257"/>
       <c r="H112" s="23" t="s">
         <v>20</v>
       </c>
@@ -29728,18 +29769,18 @@
     </row>
     <row r="113" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
-      <c r="C113" s="217" t="s">
+      <c r="C113" s="215" t="s">
         <v>264</v>
       </c>
-      <c r="D113" s="218"/>
+      <c r="D113" s="216"/>
       <c r="E113" s="73">
         <v>7</v>
       </c>
-      <c r="F113" s="223">
+      <c r="F113" s="231">
         <f>IF(ISNUMBER($E$10),E113*$E$10*1.1,E113*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G113" s="223"/>
+      <c r="G113" s="231"/>
       <c r="H113" s="24" t="s">
         <v>20</v>
       </c>
@@ -29748,18 +29789,18 @@
     <row r="114" spans="1:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="215" t="s">
+      <c r="C114" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="D114" s="216"/>
+      <c r="D114" s="218"/>
       <c r="E114" s="77">
         <v>3</v>
       </c>
-      <c r="F114" s="251">
+      <c r="F114" s="257">
         <f>IF(ISNUMBER($E$10),E114*$E$10*1.1,E114*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G114" s="251"/>
+      <c r="G114" s="257"/>
       <c r="H114" s="23" t="s">
         <v>20</v>
       </c>
@@ -29767,19 +29808,19 @@
     <row r="115" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="239" t="s">
+      <c r="C115" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="240"/>
+      <c r="D115" s="203"/>
       <c r="E115" s="74">
         <f>SUM(E111:E114)</f>
         <v>60</v>
       </c>
-      <c r="F115" s="159">
+      <c r="F115" s="127">
         <f>SUM(F112:G114)</f>
         <v>0</v>
       </c>
-      <c r="G115" s="160"/>
+      <c r="G115" s="128"/>
       <c r="H115" s="24" t="s">
         <v>20</v>
       </c>
@@ -29847,21 +29888,21 @@
     </row>
     <row r="119" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
-      <c r="B119" s="174" t="s">
+      <c r="B119" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="C119" s="236"/>
-      <c r="D119" s="236"/>
-      <c r="E119" s="236"/>
-      <c r="F119" s="236"/>
-      <c r="G119" s="236"/>
-      <c r="H119" s="236"/>
-      <c r="I119" s="236"/>
-      <c r="J119" s="236"/>
-      <c r="K119" s="236"/>
-      <c r="L119" s="236"/>
-      <c r="M119" s="236"/>
-      <c r="N119" s="237"/>
+      <c r="C119" s="212"/>
+      <c r="D119" s="212"/>
+      <c r="E119" s="212"/>
+      <c r="F119" s="212"/>
+      <c r="G119" s="212"/>
+      <c r="H119" s="212"/>
+      <c r="I119" s="212"/>
+      <c r="J119" s="212"/>
+      <c r="K119" s="212"/>
+      <c r="L119" s="212"/>
+      <c r="M119" s="212"/>
+      <c r="N119" s="213"/>
     </row>
     <row r="120" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12"/>
@@ -29873,14 +29914,14 @@
       <c r="E120" s="30"/>
       <c r="F120" s="30"/>
       <c r="G120" s="30"/>
-      <c r="H120" s="118" t="s">
+      <c r="H120" s="191" t="s">
         <v>113</v>
       </c>
-      <c r="I120" s="238"/>
-      <c r="J120" s="117" t="s">
+      <c r="I120" s="214"/>
+      <c r="J120" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="K120" s="118"/>
+      <c r="K120" s="191"/>
       <c r="L120" s="30"/>
       <c r="M120" s="30"/>
       <c r="N120" s="30"/>
@@ -29895,14 +29936,14 @@
       <c r="E121" s="30"/>
       <c r="F121" s="30"/>
       <c r="G121" s="30"/>
-      <c r="H121" s="119" t="s">
+      <c r="H121" s="192" t="s">
         <v>268</v>
       </c>
-      <c r="I121" s="119"/>
-      <c r="J121" s="119" t="s">
+      <c r="I121" s="192"/>
+      <c r="J121" s="192" t="s">
         <v>269</v>
       </c>
-      <c r="K121" s="119"/>
+      <c r="K121" s="192"/>
       <c r="L121" s="30"/>
       <c r="M121" s="30"/>
       <c r="N121" s="30"/>
@@ -29915,14 +29956,14 @@
       <c r="E122" s="30"/>
       <c r="F122" s="30"/>
       <c r="G122" s="30"/>
-      <c r="H122" s="120" t="s">
+      <c r="H122" s="193" t="s">
         <v>270</v>
       </c>
-      <c r="I122" s="120"/>
-      <c r="J122" s="120" t="s">
+      <c r="I122" s="193"/>
+      <c r="J122" s="193" t="s">
         <v>271</v>
       </c>
-      <c r="K122" s="120"/>
+      <c r="K122" s="193"/>
       <c r="L122" s="30"/>
       <c r="M122" s="30"/>
       <c r="N122" s="30"/>
@@ -29935,14 +29976,14 @@
       <c r="E123" s="30"/>
       <c r="F123" s="30"/>
       <c r="G123" s="30"/>
-      <c r="H123" s="120" t="s">
+      <c r="H123" s="193" t="s">
         <v>272</v>
       </c>
-      <c r="I123" s="120"/>
-      <c r="J123" s="120" t="s">
+      <c r="I123" s="193"/>
+      <c r="J123" s="193" t="s">
         <v>273</v>
       </c>
-      <c r="K123" s="120"/>
+      <c r="K123" s="193"/>
       <c r="L123" s="30"/>
       <c r="M123" s="30"/>
       <c r="N123" s="30"/>
@@ -30438,11 +30479,11 @@
       <c r="E135" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F135" s="212" t="str">
+      <c r="F135" s="206" t="str">
         <f>CONCATENATE(" Volume for ",$E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G135" s="212"/>
+      <c r="G135" s="206"/>
       <c r="K135" s="41"/>
       <c r="L135" s="41"/>
       <c r="M135" s="41"/>
@@ -30453,17 +30494,17 @@
       <c r="B136" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C136" s="233" t="s">
+      <c r="C136" s="207" t="s">
         <v>211</v>
       </c>
-      <c r="D136" s="234"/>
+      <c r="D136" s="208"/>
       <c r="E136" s="54">
         <v>60</v>
       </c>
-      <c r="F136" s="144" t="s">
+      <c r="F136" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="G136" s="145"/>
+      <c r="G136" s="139"/>
       <c r="H136" s="21" t="s">
         <v>20</v>
       </c>
@@ -30471,17 +30512,17 @@
     <row r="137" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="219" t="s">
+      <c r="C137" s="197" t="s">
         <v>212</v>
       </c>
-      <c r="D137" s="220"/>
+      <c r="D137" s="198"/>
       <c r="E137" s="77">
         <v>2.5</v>
       </c>
-      <c r="F137" s="115" t="s">
+      <c r="F137" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G137" s="116"/>
+      <c r="G137" s="118"/>
       <c r="H137" s="23" t="s">
         <v>20</v>
       </c>
@@ -30489,55 +30530,55 @@
     </row>
     <row r="138" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
-      <c r="C138" s="259" t="s">
+      <c r="C138" s="253" t="s">
         <v>274</v>
       </c>
-      <c r="D138" s="259"/>
+      <c r="D138" s="253"/>
       <c r="E138" s="73">
         <v>1</v>
       </c>
-      <c r="F138" s="260">
+      <c r="F138" s="254">
         <f>IF(ISNUMBER($E$10),E138*$E$10*1.1,E138*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G138" s="260"/>
+      <c r="G138" s="254"/>
       <c r="H138" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
-      <c r="C139" s="261" t="s">
+      <c r="C139" s="255" t="s">
         <v>275</v>
       </c>
-      <c r="D139" s="262"/>
+      <c r="D139" s="256"/>
       <c r="E139" s="89">
         <v>30</v>
       </c>
-      <c r="F139" s="251">
+      <c r="F139" s="257">
         <f>IF(ISNUMBER($E$10),E139*$E$10*1.1,E139*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G139" s="251"/>
+      <c r="G139" s="257"/>
       <c r="H139" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
-      <c r="C140" s="103" t="s">
+      <c r="C140" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D140" s="104"/>
+      <c r="D140" s="186"/>
       <c r="E140" s="74">
         <f>SUM(E136:E139)</f>
         <v>93.5</v>
       </c>
-      <c r="F140" s="159">
+      <c r="F140" s="127">
         <f>SUM(F137:G139)</f>
         <v>0</v>
       </c>
-      <c r="G140" s="160"/>
+      <c r="G140" s="128"/>
       <c r="H140" s="24" t="s">
         <v>20</v>
       </c>
@@ -30578,21 +30619,21 @@
     </row>
     <row r="144" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="13"/>
-      <c r="B144" s="155" t="s">
+      <c r="B144" s="148" t="s">
         <v>293</v>
       </c>
-      <c r="C144" s="156"/>
-      <c r="D144" s="156"/>
-      <c r="E144" s="156"/>
-      <c r="F144" s="156"/>
-      <c r="G144" s="156"/>
-      <c r="H144" s="156"/>
-      <c r="I144" s="156"/>
-      <c r="J144" s="156"/>
-      <c r="K144" s="156"/>
-      <c r="L144" s="156"/>
-      <c r="M144" s="156"/>
-      <c r="N144" s="157"/>
+      <c r="C144" s="149"/>
+      <c r="D144" s="149"/>
+      <c r="E144" s="149"/>
+      <c r="F144" s="149"/>
+      <c r="G144" s="149"/>
+      <c r="H144" s="149"/>
+      <c r="I144" s="149"/>
+      <c r="J144" s="149"/>
+      <c r="K144" s="149"/>
+      <c r="L144" s="149"/>
+      <c r="M144" s="149"/>
+      <c r="N144" s="150"/>
     </row>
     <row r="145" spans="1:15" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="29"/>
@@ -30611,21 +30652,21 @@
       </c>
     </row>
     <row r="146" spans="1:15" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="190" t="s">
+      <c r="B146" s="112" t="s">
         <v>295</v>
       </c>
-      <c r="C146" s="191"/>
-      <c r="D146" s="191"/>
-      <c r="E146" s="191"/>
-      <c r="F146" s="191"/>
-      <c r="G146" s="191"/>
-      <c r="H146" s="191"/>
-      <c r="I146" s="191"/>
-      <c r="J146" s="191"/>
-      <c r="K146" s="191"/>
-      <c r="L146" s="191"/>
-      <c r="M146" s="191"/>
-      <c r="N146" s="192"/>
+      <c r="C146" s="113"/>
+      <c r="D146" s="113"/>
+      <c r="E146" s="113"/>
+      <c r="F146" s="113"/>
+      <c r="G146" s="113"/>
+      <c r="H146" s="113"/>
+      <c r="I146" s="113"/>
+      <c r="J146" s="113"/>
+      <c r="K146" s="113"/>
+      <c r="L146" s="113"/>
+      <c r="M146" s="113"/>
+      <c r="N146" s="114"/>
     </row>
     <row r="147" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12"/>
@@ -30652,11 +30693,11 @@
       <c r="E149" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F149" s="113" t="str">
+      <c r="F149" s="115" t="str">
         <f>CONCATENATE(" Volume for ", $E$11, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G149" s="113"/>
+      <c r="G149" s="115"/>
       <c r="K149" s="41"/>
       <c r="L149" s="41"/>
       <c r="M149" s="41"/>
@@ -30667,17 +30708,17 @@
       <c r="B150" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C150" s="219" t="s">
+      <c r="C150" s="197" t="s">
         <v>125</v>
       </c>
-      <c r="D150" s="220"/>
+      <c r="D150" s="198"/>
       <c r="E150" s="77">
         <v>7.5</v>
       </c>
-      <c r="F150" s="263" t="s">
+      <c r="F150" s="252" t="s">
         <v>42</v>
       </c>
-      <c r="G150" s="263"/>
+      <c r="G150" s="252"/>
       <c r="H150" s="23" t="s">
         <v>20</v>
       </c>
@@ -30685,18 +30726,18 @@
     <row r="151" spans="1:15" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="13"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="239" t="s">
+      <c r="C151" s="202" t="s">
         <v>280</v>
       </c>
-      <c r="D151" s="240"/>
+      <c r="D151" s="203"/>
       <c r="E151" s="73">
         <v>12.5</v>
       </c>
-      <c r="F151" s="223">
+      <c r="F151" s="231">
         <f>IF(ISNUMBER($E$10),E151*$E$10*1.1,E151*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G151" s="223"/>
+      <c r="G151" s="231"/>
       <c r="H151" s="24" t="s">
         <v>20</v>
       </c>
@@ -30704,37 +30745,37 @@
     </row>
     <row r="152" spans="1:15" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="13"/>
-      <c r="C152" s="150" t="s">
+      <c r="C152" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="D152" s="151"/>
+      <c r="D152" s="158"/>
       <c r="E152" s="81">
         <v>5</v>
       </c>
-      <c r="F152" s="263">
+      <c r="F152" s="252">
         <f>IF(ISNUMBER($E$10),E152*$E$10*1.1,E152*$E$11*1.1)</f>
         <v>0</v>
       </c>
-      <c r="G152" s="263"/>
+      <c r="G152" s="252"/>
       <c r="H152" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:15" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="13"/>
-      <c r="C153" s="103" t="s">
+      <c r="C153" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="D153" s="104"/>
+      <c r="D153" s="186"/>
       <c r="E153" s="74">
         <f>SUM(E150:E152)</f>
         <v>25</v>
       </c>
-      <c r="F153" s="159">
+      <c r="F153" s="127">
         <f>SUM(F150:G152)</f>
         <v>0</v>
       </c>
-      <c r="G153" s="160"/>
+      <c r="G153" s="128"/>
       <c r="H153" s="24" t="s">
         <v>20</v>
       </c>
@@ -30761,34 +30802,34 @@
       <c r="F155" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G155" s="102" t="str">
+      <c r="G155" s="129" t="str">
         <f>IF(J154&gt;0,CONCATENATE(J154," cycles"),"___cycles")</f>
         <v>___cycles</v>
       </c>
-      <c r="K155" s="181" t="s">
+      <c r="K155" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="L155" s="181"/>
-      <c r="M155" s="265" t="s">
+      <c r="L155" s="109"/>
+      <c r="M155" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="N155" s="266"/>
+      <c r="N155" s="249"/>
     </row>
     <row r="156" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="13"/>
       <c r="F156" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="G156" s="102"/>
-      <c r="K156" s="113" t="s">
+      <c r="G156" s="129"/>
+      <c r="K156" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="L156" s="113"/>
-      <c r="M156" s="267" t="str">
+      <c r="L156" s="115"/>
+      <c r="M156" s="250" t="str">
         <f>"7 - 8"</f>
         <v>7 - 8</v>
       </c>
-      <c r="N156" s="268"/>
+      <c r="N156" s="251"/>
       <c r="O156" s="90"/>
     </row>
     <row r="157" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30796,61 +30837,61 @@
       <c r="F157" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="K157" s="113" t="s">
+      <c r="K157" s="115" t="s">
         <v>283</v>
       </c>
-      <c r="L157" s="113"/>
-      <c r="M157" s="267" t="str">
+      <c r="L157" s="115"/>
+      <c r="M157" s="250" t="str">
         <f>"11 - 12"</f>
         <v>11 - 12</v>
       </c>
-      <c r="N157" s="268"/>
+      <c r="N157" s="251"/>
       <c r="O157" s="90"/>
     </row>
     <row r="158" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F158" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K158" s="113" t="s">
+      <c r="K158" s="115" t="s">
         <v>284</v>
       </c>
-      <c r="L158" s="113"/>
-      <c r="M158" s="264" t="str">
+      <c r="L158" s="115"/>
+      <c r="M158" s="247" t="str">
         <f>"14 - 15"</f>
         <v>14 - 15</v>
       </c>
-      <c r="N158" s="264"/>
+      <c r="N158" s="247"/>
       <c r="O158" s="90"/>
     </row>
     <row r="159" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F159" s="28"/>
-      <c r="K159" s="113" t="s">
+      <c r="K159" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="L159" s="113"/>
-      <c r="M159" s="264" t="str">
+      <c r="L159" s="115"/>
+      <c r="M159" s="247" t="str">
         <f>"15 - 17"</f>
         <v>15 - 17</v>
       </c>
-      <c r="N159" s="264"/>
+      <c r="N159" s="247"/>
       <c r="O159" s="90"/>
     </row>
     <row r="160" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="182" t="s">
+      <c r="B160" s="121" t="s">
         <v>286</v>
       </c>
-      <c r="C160" s="183"/>
-      <c r="D160" s="183"/>
-      <c r="E160" s="183"/>
-      <c r="F160" s="183"/>
-      <c r="G160" s="183"/>
-      <c r="H160" s="183"/>
-      <c r="I160" s="183"/>
-      <c r="J160" s="183"/>
-      <c r="K160" s="183"/>
-      <c r="L160" s="183"/>
-      <c r="M160" s="183"/>
-      <c r="N160" s="184"/>
+      <c r="C160" s="122"/>
+      <c r="D160" s="122"/>
+      <c r="E160" s="122"/>
+      <c r="F160" s="122"/>
+      <c r="G160" s="122"/>
+      <c r="H160" s="122"/>
+      <c r="I160" s="122"/>
+      <c r="J160" s="122"/>
+      <c r="K160" s="122"/>
+      <c r="L160" s="122"/>
+      <c r="M160" s="122"/>
+      <c r="N160" s="123"/>
     </row>
     <row r="161" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12"/>
@@ -30862,21 +30903,21 @@
     </row>
     <row r="162" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12"/>
-      <c r="B162" s="161" t="s">
+      <c r="B162" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="C162" s="162"/>
-      <c r="D162" s="162"/>
-      <c r="E162" s="162"/>
-      <c r="F162" s="162"/>
-      <c r="G162" s="162"/>
-      <c r="H162" s="162"/>
-      <c r="I162" s="162"/>
-      <c r="J162" s="162"/>
-      <c r="K162" s="162"/>
-      <c r="L162" s="162"/>
-      <c r="M162" s="162"/>
-      <c r="N162" s="163"/>
+      <c r="C162" s="125"/>
+      <c r="D162" s="125"/>
+      <c r="E162" s="125"/>
+      <c r="F162" s="125"/>
+      <c r="G162" s="125"/>
+      <c r="H162" s="125"/>
+      <c r="I162" s="125"/>
+      <c r="J162" s="125"/>
+      <c r="K162" s="125"/>
+      <c r="L162" s="125"/>
+      <c r="M162" s="125"/>
+      <c r="N162" s="126"/>
     </row>
     <row r="163" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="33" t="s">
@@ -31374,261 +31415,303 @@
         <v>288</v>
       </c>
     </row>
-    <row r="176" spans="1:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
-      <c r="C176" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="D176" s="101"/>
-      <c r="E176" s="101"/>
-      <c r="F176" s="101"/>
-      <c r="G176" s="101"/>
-      <c r="H176" s="101"/>
-      <c r="I176" s="101"/>
-      <c r="J176" s="101"/>
-      <c r="K176" s="102" t="s">
-        <v>226</v>
-      </c>
-      <c r="L176" s="102"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="D176"/>
+      <c r="E176" s="269" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="177" spans="1:12" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
-      <c r="C177" s="101" t="s">
-        <v>289</v>
-      </c>
-      <c r="D177" s="101"/>
-      <c r="E177" s="101"/>
-      <c r="F177" s="101"/>
-      <c r="G177" s="101"/>
-      <c r="H177" s="101"/>
-      <c r="I177" s="101"/>
-      <c r="J177" s="101"/>
-      <c r="K177" s="102" t="s">
-        <v>290</v>
-      </c>
-      <c r="L177" s="102"/>
+      <c r="C177" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="D177" s="184"/>
+      <c r="E177" s="184"/>
+      <c r="F177" s="184"/>
+      <c r="G177" s="184"/>
+      <c r="H177" s="184"/>
+      <c r="I177" s="184"/>
+      <c r="J177" s="184"/>
+      <c r="K177" s="129" t="s">
+        <v>226</v>
+      </c>
+      <c r="L177" s="129"/>
     </row>
     <row r="178" spans="1:12" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27"/>
-      <c r="C178" s="101" t="s">
+      <c r="C178" s="184" t="s">
+        <v>289</v>
+      </c>
+      <c r="D178" s="184"/>
+      <c r="E178" s="184"/>
+      <c r="F178" s="184"/>
+      <c r="G178" s="184"/>
+      <c r="H178" s="184"/>
+      <c r="I178" s="184"/>
+      <c r="J178" s="184"/>
+      <c r="K178" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="L178" s="129"/>
+    </row>
+    <row r="179" spans="1:12" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="27"/>
+      <c r="C179" s="184" t="s">
         <v>229</v>
       </c>
-      <c r="D178" s="101"/>
-      <c r="E178" s="101"/>
-      <c r="F178" s="101"/>
-      <c r="G178" s="101"/>
-      <c r="H178" s="101"/>
-      <c r="I178" s="101"/>
-      <c r="J178" s="101"/>
-      <c r="K178" s="102" t="s">
+      <c r="D179" s="184"/>
+      <c r="E179" s="184"/>
+      <c r="F179" s="184"/>
+      <c r="G179" s="184"/>
+      <c r="H179" s="184"/>
+      <c r="I179" s="184"/>
+      <c r="J179" s="184"/>
+      <c r="K179" s="129" t="s">
         <v>230</v>
       </c>
-      <c r="L178" s="102"/>
-    </row>
-    <row r="179" spans="1:12" s="5" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="27"/>
-      <c r="C179" s="101" t="s">
+      <c r="L179" s="129"/>
+    </row>
+    <row r="180" spans="1:12" s="5" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="27"/>
+      <c r="C180" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="D179" s="101"/>
-      <c r="E179" s="101"/>
-      <c r="F179" s="101"/>
-      <c r="G179" s="101"/>
-      <c r="H179" s="101"/>
-      <c r="I179" s="101"/>
-      <c r="J179" s="101"/>
-      <c r="K179" s="102" t="s">
+      <c r="D180" s="184"/>
+      <c r="E180" s="184"/>
+      <c r="F180" s="184"/>
+      <c r="G180" s="184"/>
+      <c r="H180" s="184"/>
+      <c r="I180" s="184"/>
+      <c r="J180" s="184"/>
+      <c r="K180" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="L179" s="102"/>
-    </row>
-    <row r="180" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="27"/>
-      <c r="C180" s="82"/>
-      <c r="D180" s="82"/>
-      <c r="E180" s="82"/>
-      <c r="F180" s="82"/>
-      <c r="G180" s="82"/>
-      <c r="H180" s="82"/>
-      <c r="I180" s="82"/>
-      <c r="J180" s="82"/>
-      <c r="K180" s="30"/>
-      <c r="L180" s="30"/>
-    </row>
-    <row r="181" spans="1:12" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L180" s="129"/>
+    </row>
+    <row r="181" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="27"/>
-      <c r="B181" s="63"/>
-      <c r="C181" s="4"/>
-    </row>
-    <row r="182" spans="1:12" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C182" s="241" t="s">
+      <c r="C181" s="82"/>
+      <c r="D181" s="82"/>
+      <c r="E181" s="82"/>
+      <c r="F181" s="82"/>
+      <c r="G181" s="82"/>
+      <c r="H181" s="82"/>
+      <c r="I181" s="82"/>
+      <c r="J181" s="82"/>
+      <c r="K181" s="30"/>
+      <c r="L181" s="30"/>
+    </row>
+    <row r="182" spans="1:12" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="27"/>
+      <c r="B182" s="63"/>
+      <c r="C182" s="4"/>
+    </row>
+    <row r="183" spans="1:12" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C183" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="D182" s="242"/>
-      <c r="E182" s="243"/>
-      <c r="F182" s="188" t="s">
+      <c r="D183" s="200"/>
+      <c r="E183" s="201"/>
+      <c r="F183" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="G182" s="188"/>
-      <c r="H182" s="188"/>
-      <c r="I182" s="188"/>
-    </row>
-    <row r="183" spans="1:12" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C183" s="185" t="s">
+      <c r="G183" s="107"/>
+      <c r="H183" s="107"/>
+      <c r="I183" s="107"/>
+    </row>
+    <row r="184" spans="1:12" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C184" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="D183" s="186"/>
-      <c r="E183" s="187"/>
-      <c r="F183" s="185" t="s">
+      <c r="D184" s="102"/>
+      <c r="E184" s="103"/>
+      <c r="F184" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="G183" s="186"/>
-      <c r="H183" s="186"/>
-      <c r="I183" s="187"/>
-    </row>
-    <row r="184" spans="1:12" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C184" s="185" t="s">
+      <c r="G184" s="102"/>
+      <c r="H184" s="102"/>
+      <c r="I184" s="103"/>
+    </row>
+    <row r="185" spans="1:12" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D184" s="186"/>
-      <c r="E184" s="187"/>
-      <c r="F184" s="185" t="s">
+      <c r="D185" s="102"/>
+      <c r="E185" s="103"/>
+      <c r="F185" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="G184" s="186"/>
-      <c r="H184" s="186"/>
-      <c r="I184" s="187"/>
-    </row>
-    <row r="185" spans="1:12" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C185" s="185" t="s">
+      <c r="G185" s="102"/>
+      <c r="H185" s="102"/>
+      <c r="I185" s="103"/>
+    </row>
+    <row r="186" spans="1:12" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C186" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="D185" s="186"/>
-      <c r="E185" s="187"/>
-      <c r="F185" s="185" t="s">
+      <c r="D186" s="102"/>
+      <c r="E186" s="103"/>
+      <c r="F186" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="G185" s="186"/>
-      <c r="H185" s="186"/>
-      <c r="I185" s="187"/>
-    </row>
-    <row r="186" spans="1:12" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C186" s="185" t="s">
+      <c r="G186" s="102"/>
+      <c r="H186" s="102"/>
+      <c r="I186" s="103"/>
+    </row>
+    <row r="187" spans="1:12" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D186" s="186"/>
-      <c r="E186" s="187"/>
-      <c r="F186" s="185" t="s">
+      <c r="D187" s="102"/>
+      <c r="E187" s="103"/>
+      <c r="F187" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="G186" s="186"/>
-      <c r="H186" s="186"/>
-      <c r="I186" s="187"/>
-    </row>
-    <row r="187" spans="1:12" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C187" s="185" t="s">
+      <c r="G187" s="102"/>
+      <c r="H187" s="102"/>
+      <c r="I187" s="103"/>
+    </row>
+    <row r="188" spans="1:12" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="D187" s="186"/>
-      <c r="E187" s="187"/>
-      <c r="F187" s="185" t="s">
+      <c r="D188" s="102"/>
+      <c r="E188" s="103"/>
+      <c r="F188" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="G187" s="186"/>
-      <c r="H187" s="186"/>
-      <c r="I187" s="187"/>
-    </row>
-    <row r="188" spans="1:12" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C188" s="185" t="s">
+      <c r="G188" s="102"/>
+      <c r="H188" s="102"/>
+      <c r="I188" s="103"/>
+    </row>
+    <row r="189" spans="1:12" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C189" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="D188" s="186"/>
-      <c r="E188" s="187"/>
-      <c r="F188" s="185">
+      <c r="D189" s="102"/>
+      <c r="E189" s="103"/>
+      <c r="F189" s="101">
         <v>20241219</v>
       </c>
-      <c r="G188" s="186"/>
-      <c r="H188" s="186"/>
-      <c r="I188" s="187"/>
-    </row>
-    <row r="189" spans="1:12" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C189" s="185" t="s">
+      <c r="G189" s="102"/>
+      <c r="H189" s="102"/>
+      <c r="I189" s="103"/>
+    </row>
+    <row r="190" spans="1:12" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="D189" s="186"/>
-      <c r="E189" s="187"/>
-      <c r="F189" s="244">
+      <c r="D190" s="102"/>
+      <c r="E190" s="103"/>
+      <c r="F190" s="194">
         <v>20241021</v>
       </c>
-      <c r="G189" s="245"/>
-      <c r="H189" s="245"/>
-      <c r="I189" s="246"/>
+      <c r="G190" s="195"/>
+      <c r="H190" s="195"/>
+      <c r="I190" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="F188:I188"/>
-    <mergeCell ref="C189:E189"/>
-    <mergeCell ref="F189:I189"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="F184:I184"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="F185:I185"/>
-    <mergeCell ref="C186:E186"/>
-    <mergeCell ref="F186:I186"/>
-    <mergeCell ref="C179:J179"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="C182:E182"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="C183:E183"/>
-    <mergeCell ref="F183:I183"/>
-    <mergeCell ref="C176:J176"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="C177:J177"/>
-    <mergeCell ref="K177:L177"/>
-    <mergeCell ref="C178:J178"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="B160:N160"/>
-    <mergeCell ref="B162:N162"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="K155:L155"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="K156:L156"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="B144:N144"/>
-    <mergeCell ref="B146:N146"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B51:N51"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B41:N41"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="B61:N61"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B71:N71"/>
+    <mergeCell ref="B77:N77"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="B98:N98"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="B87:N87"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="B107:N107"/>
+    <mergeCell ref="B109:N109"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="F103:G103"/>
     <mergeCell ref="C115:D115"/>
     <mergeCell ref="F115:G115"/>
     <mergeCell ref="B119:N119"/>
@@ -31643,100 +31726,69 @@
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="F114:G114"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="B107:N107"/>
-    <mergeCell ref="B109:N109"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="B98:N98"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="B87:N87"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="I86:N86"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B71:N71"/>
-    <mergeCell ref="B77:N77"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="B61:N61"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B51:N51"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B41:N41"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="B144:N144"/>
+    <mergeCell ref="B146:N146"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="B160:N160"/>
+    <mergeCell ref="B162:N162"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="C180:J180"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="F183:I183"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="F184:I184"/>
+    <mergeCell ref="C177:J177"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="C178:J178"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="C179:J179"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="F188:I188"/>
+    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="F189:I189"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="F190:I190"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="F186:I186"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="F187:I187"/>
   </mergeCells>
   <conditionalFormatting sqref="C24:N31">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
